--- a/QA_ДЗ Маляров.xlsx
+++ b/QA_ДЗ Маляров.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\QA TESTER\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FA9F804-77A0-4A4F-BFF0-D985539BA8EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A03509B1-A8BF-4ED2-99DF-8803A5AD19A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="intro" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="54">
   <si>
     <t>Привет!
 Это файл с домашними работами, которые вам понадобятся на протяжении всех уроков. Для работы - вам необходимо клонировать себе этот файл на гугл диск. После того, как выполните задания,
@@ -893,12 +893,15 @@
   <si>
     <t>ваш ответ… Гибкая модель - Scrum: Удобна тем, что позволяет гибко реагировать на отзывы пользователей и изменения трендов. Позволяет команде оценивать ход проекта и оперативно вносить необходимые изменения. Имеет большие возможности для адаптации проекта "Магазин НЛО".                                                                                               Линейная модель - Водопадная модель: Хорошо подойдет если требования к проекту четко определены и мы имеем полное понимание о конечном продукте. Для этой модели характерно проработка каждого этапа разработки до конца и начало следующего этапа разоаботки после окончания предыдущего.</t>
   </si>
+  <si>
+    <t>ваш ответ…Функциональные требования: 1. Отсутствует описание функциональности и информация о наполнении разделов Home, About, Contact. 2. В описании меню не указано должно ли меню быть статическим или должно сопровождать пользователя при прокрутке страницы.3. Не указан формат времени для часов работы (24 - часовой или 12 -часовой с АМ/РМ). 3. Неясны критерии обновления акций - указано что акции обновляются раз в день, но не указано конкретное время обновления и алгоритм обновления. 4. Не указана функциональность кнопки "Load more" и как отображаются карточки товаров (более 12 штук).5. Отсутствует описание перехода к оформлению заказа при нажатии кнопки "Order now" - осуществляется переход для каждой карточки товара отдельно или для всех выбранных товаров вместе. 6. Не описана алгоритм добавления количества выбранного товара - клиент выбирает количество нажатием цифр на клавиатуре или другим способом (например выбор количества товара в всплывающем окне). Также не описана ситуация когда клиент вводит недопустимое значение, например буквы или цифры больше 10 или специальные символы.  7. Отсутствует описание привязки платежных карт клиента. 8. Не понятно применение карт с помощью ввода CVT кода - так как CVT код обычно запрашивается  непосредственно при совершении платежа, а не для выбора карты и связанное с этим вводом безопасность банковских данных клиента. 9. Не описано какую информацию видит клиент после успешной оплаты. 10. Не указано сколько отзывов должно отображаться одновременно в карусели. 10. Блок с промо-роликом не описаны требования к поддерживаемым браузерам и платыормам для воспроизведения видео. 11. Не понятно как пользователи Android или Windows звонить через придожение Apple "FaceTime". 12. В разделе Контакты клиент может сделать резерв до 20 штук одног товара, а в разделе покупка товаров может выбрать не более 10 штук товара одного наименования. 13. Не указан механизм верификации данных до отправки.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -925,13 +928,6 @@
       <sz val="10"/>
       <color rgb="FFB7B7B7"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1200,28 +1196,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1233,10 +1229,10 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1263,7 +1259,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1290,10 +1286,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1301,51 +1294,46 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1357,15 +1345,20 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1753,7 +1746,7 @@
       <c r="H2" s="24"/>
     </row>
     <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="65" t="s">
+      <c r="A3" s="64" t="s">
         <v>40</v>
       </c>
       <c r="B3" s="20"/>
@@ -1765,34 +1758,34 @@
       <c r="H3" s="21"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="38"/>
+      <c r="A4" s="37"/>
       <c r="B4" s="18"/>
       <c r="C4" s="18"/>
       <c r="D4" s="18"/>
       <c r="E4" s="18"/>
       <c r="F4" s="18"/>
       <c r="G4" s="18"/>
-      <c r="H4" s="39"/>
+      <c r="H4" s="38"/>
     </row>
     <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="38"/>
+      <c r="A5" s="37"/>
       <c r="B5" s="18"/>
       <c r="C5" s="18"/>
       <c r="D5" s="18"/>
       <c r="E5" s="18"/>
       <c r="F5" s="18"/>
       <c r="G5" s="18"/>
-      <c r="H5" s="39"/>
+      <c r="H5" s="38"/>
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="38"/>
+      <c r="A6" s="37"/>
       <c r="B6" s="18"/>
       <c r="C6" s="18"/>
       <c r="D6" s="18"/>
       <c r="E6" s="18"/>
       <c r="F6" s="18"/>
       <c r="G6" s="18"/>
-      <c r="H6" s="39"/>
+      <c r="H6" s="38"/>
     </row>
     <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="22"/>
@@ -1805,7 +1798,7 @@
       <c r="H7" s="24"/>
     </row>
     <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="63" t="s">
+      <c r="A8" s="62" t="s">
         <v>41</v>
       </c>
       <c r="B8" s="18"/>
@@ -1814,37 +1807,37 @@
       <c r="E8" s="18"/>
       <c r="F8" s="18"/>
       <c r="G8" s="18"/>
-      <c r="H8" s="39"/>
+      <c r="H8" s="38"/>
     </row>
     <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="38"/>
+      <c r="A9" s="37"/>
       <c r="B9" s="18"/>
       <c r="C9" s="18"/>
       <c r="D9" s="18"/>
       <c r="E9" s="18"/>
       <c r="F9" s="18"/>
       <c r="G9" s="18"/>
-      <c r="H9" s="39"/>
+      <c r="H9" s="38"/>
     </row>
     <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="38"/>
+      <c r="A10" s="37"/>
       <c r="B10" s="18"/>
       <c r="C10" s="18"/>
       <c r="D10" s="18"/>
       <c r="E10" s="18"/>
       <c r="F10" s="18"/>
       <c r="G10" s="18"/>
-      <c r="H10" s="39"/>
+      <c r="H10" s="38"/>
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="38"/>
+      <c r="A11" s="37"/>
       <c r="B11" s="18"/>
       <c r="C11" s="18"/>
       <c r="D11" s="18"/>
       <c r="E11" s="18"/>
       <c r="F11" s="18"/>
       <c r="G11" s="18"/>
-      <c r="H11" s="39"/>
+      <c r="H11" s="38"/>
     </row>
     <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="22"/>
@@ -1857,7 +1850,7 @@
       <c r="H12" s="24"/>
     </row>
     <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="63" t="s">
+      <c r="A13" s="62" t="s">
         <v>42</v>
       </c>
       <c r="B13" s="18"/>
@@ -1866,37 +1859,37 @@
       <c r="E13" s="18"/>
       <c r="F13" s="18"/>
       <c r="G13" s="18"/>
-      <c r="H13" s="39"/>
+      <c r="H13" s="38"/>
     </row>
     <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="38"/>
+      <c r="A14" s="37"/>
       <c r="B14" s="18"/>
       <c r="C14" s="18"/>
       <c r="D14" s="18"/>
       <c r="E14" s="18"/>
       <c r="F14" s="18"/>
       <c r="G14" s="18"/>
-      <c r="H14" s="39"/>
+      <c r="H14" s="38"/>
     </row>
     <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="38"/>
+      <c r="A15" s="37"/>
       <c r="B15" s="18"/>
       <c r="C15" s="18"/>
       <c r="D15" s="18"/>
       <c r="E15" s="18"/>
       <c r="F15" s="18"/>
       <c r="G15" s="18"/>
-      <c r="H15" s="39"/>
+      <c r="H15" s="38"/>
     </row>
     <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="38"/>
+      <c r="A16" s="37"/>
       <c r="B16" s="18"/>
       <c r="C16" s="18"/>
       <c r="D16" s="18"/>
       <c r="E16" s="18"/>
       <c r="F16" s="18"/>
       <c r="G16" s="18"/>
-      <c r="H16" s="39"/>
+      <c r="H16" s="38"/>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="22"/>
@@ -1909,7 +1902,7 @@
       <c r="H17" s="24"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="63" t="s">
+      <c r="A18" s="62" t="s">
         <v>43</v>
       </c>
       <c r="B18" s="18"/>
@@ -1918,37 +1911,37 @@
       <c r="E18" s="18"/>
       <c r="F18" s="18"/>
       <c r="G18" s="18"/>
-      <c r="H18" s="39"/>
+      <c r="H18" s="38"/>
     </row>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="38"/>
+      <c r="A19" s="37"/>
       <c r="B19" s="18"/>
       <c r="C19" s="18"/>
       <c r="D19" s="18"/>
       <c r="E19" s="18"/>
       <c r="F19" s="18"/>
       <c r="G19" s="18"/>
-      <c r="H19" s="39"/>
+      <c r="H19" s="38"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="38"/>
+      <c r="A20" s="37"/>
       <c r="B20" s="18"/>
       <c r="C20" s="18"/>
       <c r="D20" s="18"/>
       <c r="E20" s="18"/>
       <c r="F20" s="18"/>
       <c r="G20" s="18"/>
-      <c r="H20" s="39"/>
+      <c r="H20" s="38"/>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="38"/>
+      <c r="A21" s="37"/>
       <c r="B21" s="18"/>
       <c r="C21" s="18"/>
       <c r="D21" s="18"/>
       <c r="E21" s="18"/>
       <c r="F21" s="18"/>
       <c r="G21" s="18"/>
-      <c r="H21" s="39"/>
+      <c r="H21" s="38"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="22"/>
@@ -1961,7 +1954,7 @@
       <c r="H22" s="24"/>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="63" t="s">
+      <c r="A23" s="62" t="s">
         <v>44</v>
       </c>
       <c r="B23" s="18"/>
@@ -1970,37 +1963,37 @@
       <c r="E23" s="18"/>
       <c r="F23" s="18"/>
       <c r="G23" s="18"/>
-      <c r="H23" s="39"/>
+      <c r="H23" s="38"/>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="38"/>
+      <c r="A24" s="37"/>
       <c r="B24" s="18"/>
       <c r="C24" s="18"/>
       <c r="D24" s="18"/>
       <c r="E24" s="18"/>
       <c r="F24" s="18"/>
       <c r="G24" s="18"/>
-      <c r="H24" s="39"/>
+      <c r="H24" s="38"/>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="38"/>
+      <c r="A25" s="37"/>
       <c r="B25" s="18"/>
       <c r="C25" s="18"/>
       <c r="D25" s="18"/>
       <c r="E25" s="18"/>
       <c r="F25" s="18"/>
       <c r="G25" s="18"/>
-      <c r="H25" s="39"/>
+      <c r="H25" s="38"/>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="38"/>
+      <c r="A26" s="37"/>
       <c r="B26" s="18"/>
       <c r="C26" s="18"/>
       <c r="D26" s="18"/>
       <c r="E26" s="18"/>
       <c r="F26" s="18"/>
       <c r="G26" s="18"/>
-      <c r="H26" s="39"/>
+      <c r="H26" s="38"/>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="22"/>
@@ -2015,7 +2008,7 @@
     <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="64" t="s">
+      <c r="A30" s="63" t="s">
         <v>45</v>
       </c>
       <c r="B30" s="20"/>
@@ -2027,34 +2020,34 @@
       <c r="H30" s="21"/>
     </row>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="38"/>
+      <c r="A31" s="37"/>
       <c r="B31" s="18"/>
       <c r="C31" s="18"/>
       <c r="D31" s="18"/>
       <c r="E31" s="18"/>
       <c r="F31" s="18"/>
       <c r="G31" s="18"/>
-      <c r="H31" s="39"/>
+      <c r="H31" s="38"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="38"/>
+      <c r="A32" s="37"/>
       <c r="B32" s="18"/>
       <c r="C32" s="18"/>
       <c r="D32" s="18"/>
       <c r="E32" s="18"/>
       <c r="F32" s="18"/>
       <c r="G32" s="18"/>
-      <c r="H32" s="39"/>
+      <c r="H32" s="38"/>
     </row>
     <row r="33" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="38"/>
+      <c r="A33" s="37"/>
       <c r="B33" s="18"/>
       <c r="C33" s="18"/>
       <c r="D33" s="18"/>
       <c r="E33" s="18"/>
       <c r="F33" s="18"/>
       <c r="G33" s="18"/>
-      <c r="H33" s="39"/>
+      <c r="H33" s="38"/>
     </row>
     <row r="34" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="22"/>
@@ -2067,7 +2060,7 @@
       <c r="H34" s="24"/>
     </row>
     <row r="35" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="63" t="s">
+      <c r="A35" s="62" t="s">
         <v>46</v>
       </c>
       <c r="B35" s="18"/>
@@ -2076,47 +2069,47 @@
       <c r="E35" s="18"/>
       <c r="F35" s="18"/>
       <c r="G35" s="18"/>
-      <c r="H35" s="39"/>
+      <c r="H35" s="38"/>
     </row>
     <row r="36" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="38"/>
+      <c r="A36" s="37"/>
       <c r="B36" s="18"/>
       <c r="C36" s="18"/>
       <c r="D36" s="18"/>
       <c r="E36" s="18"/>
       <c r="F36" s="18"/>
       <c r="G36" s="18"/>
-      <c r="H36" s="39"/>
+      <c r="H36" s="38"/>
     </row>
     <row r="37" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="38"/>
+      <c r="A37" s="37"/>
       <c r="B37" s="18"/>
       <c r="C37" s="18"/>
       <c r="D37" s="18"/>
       <c r="E37" s="18"/>
       <c r="F37" s="18"/>
       <c r="G37" s="18"/>
-      <c r="H37" s="39"/>
+      <c r="H37" s="38"/>
     </row>
     <row r="38" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="38"/>
+      <c r="A38" s="37"/>
       <c r="B38" s="18"/>
       <c r="C38" s="18"/>
       <c r="D38" s="18"/>
       <c r="E38" s="18"/>
       <c r="F38" s="18"/>
       <c r="G38" s="18"/>
-      <c r="H38" s="39"/>
+      <c r="H38" s="38"/>
     </row>
     <row r="39" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="38"/>
+      <c r="A39" s="37"/>
       <c r="B39" s="18"/>
       <c r="C39" s="18"/>
       <c r="D39" s="18"/>
       <c r="E39" s="18"/>
       <c r="F39" s="18"/>
       <c r="G39" s="18"/>
-      <c r="H39" s="39"/>
+      <c r="H39" s="38"/>
     </row>
     <row r="40" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="22"/>
@@ -3129,7 +3122,7 @@
       <c r="H2" s="24"/>
     </row>
     <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="66" t="s">
+      <c r="A3" s="65" t="s">
         <v>48</v>
       </c>
       <c r="B3" s="20"/>
@@ -3141,34 +3134,34 @@
       <c r="H3" s="21"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="38"/>
+      <c r="A4" s="37"/>
       <c r="B4" s="18"/>
       <c r="C4" s="18"/>
       <c r="D4" s="18"/>
       <c r="E4" s="18"/>
       <c r="F4" s="18"/>
       <c r="G4" s="18"/>
-      <c r="H4" s="39"/>
+      <c r="H4" s="38"/>
     </row>
     <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="38"/>
+      <c r="A5" s="37"/>
       <c r="B5" s="18"/>
       <c r="C5" s="18"/>
       <c r="D5" s="18"/>
       <c r="E5" s="18"/>
       <c r="F5" s="18"/>
       <c r="G5" s="18"/>
-      <c r="H5" s="39"/>
+      <c r="H5" s="38"/>
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="38"/>
+      <c r="A6" s="37"/>
       <c r="B6" s="18"/>
       <c r="C6" s="18"/>
       <c r="D6" s="18"/>
       <c r="E6" s="18"/>
       <c r="F6" s="18"/>
       <c r="G6" s="18"/>
-      <c r="H6" s="39"/>
+      <c r="H6" s="38"/>
     </row>
     <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="22"/>
@@ -3181,7 +3174,7 @@
       <c r="H7" s="24"/>
     </row>
     <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="63" t="s">
+      <c r="A8" s="62" t="s">
         <v>46</v>
       </c>
       <c r="B8" s="18"/>
@@ -3190,47 +3183,47 @@
       <c r="E8" s="18"/>
       <c r="F8" s="18"/>
       <c r="G8" s="18"/>
-      <c r="H8" s="39"/>
+      <c r="H8" s="38"/>
     </row>
     <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="38"/>
+      <c r="A9" s="37"/>
       <c r="B9" s="18"/>
       <c r="C9" s="18"/>
       <c r="D9" s="18"/>
       <c r="E9" s="18"/>
       <c r="F9" s="18"/>
       <c r="G9" s="18"/>
-      <c r="H9" s="39"/>
+      <c r="H9" s="38"/>
     </row>
     <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="38"/>
+      <c r="A10" s="37"/>
       <c r="B10" s="18"/>
       <c r="C10" s="18"/>
       <c r="D10" s="18"/>
       <c r="E10" s="18"/>
       <c r="F10" s="18"/>
       <c r="G10" s="18"/>
-      <c r="H10" s="39"/>
+      <c r="H10" s="38"/>
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="38"/>
+      <c r="A11" s="37"/>
       <c r="B11" s="18"/>
       <c r="C11" s="18"/>
       <c r="D11" s="18"/>
       <c r="E11" s="18"/>
       <c r="F11" s="18"/>
       <c r="G11" s="18"/>
-      <c r="H11" s="39"/>
+      <c r="H11" s="38"/>
     </row>
     <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="38"/>
+      <c r="A12" s="37"/>
       <c r="B12" s="18"/>
       <c r="C12" s="18"/>
       <c r="D12" s="18"/>
       <c r="E12" s="18"/>
       <c r="F12" s="18"/>
       <c r="G12" s="18"/>
-      <c r="H12" s="39"/>
+      <c r="H12" s="38"/>
     </row>
     <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="22"/>
@@ -3244,7 +3237,7 @@
     </row>
     <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="66" t="s">
+      <c r="A16" s="65" t="s">
         <v>49</v>
       </c>
       <c r="B16" s="20"/>
@@ -3256,34 +3249,34 @@
       <c r="H16" s="21"/>
     </row>
     <row r="17" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="38"/>
+      <c r="A17" s="37"/>
       <c r="B17" s="18"/>
       <c r="C17" s="18"/>
       <c r="D17" s="18"/>
       <c r="E17" s="18"/>
       <c r="F17" s="18"/>
       <c r="G17" s="18"/>
-      <c r="H17" s="39"/>
+      <c r="H17" s="38"/>
     </row>
     <row r="18" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="38"/>
+      <c r="A18" s="37"/>
       <c r="B18" s="18"/>
       <c r="C18" s="18"/>
       <c r="D18" s="18"/>
       <c r="E18" s="18"/>
       <c r="F18" s="18"/>
       <c r="G18" s="18"/>
-      <c r="H18" s="39"/>
+      <c r="H18" s="38"/>
     </row>
     <row r="19" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="38"/>
+      <c r="A19" s="37"/>
       <c r="B19" s="18"/>
       <c r="C19" s="18"/>
       <c r="D19" s="18"/>
       <c r="E19" s="18"/>
       <c r="F19" s="18"/>
       <c r="G19" s="18"/>
-      <c r="H19" s="39"/>
+      <c r="H19" s="38"/>
     </row>
     <row r="20" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A20" s="22"/>
@@ -3296,7 +3289,7 @@
       <c r="H20" s="24"/>
     </row>
     <row r="21" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="63" t="s">
+      <c r="A21" s="62" t="s">
         <v>46</v>
       </c>
       <c r="B21" s="18"/>
@@ -3305,47 +3298,47 @@
       <c r="E21" s="18"/>
       <c r="F21" s="18"/>
       <c r="G21" s="18"/>
-      <c r="H21" s="39"/>
+      <c r="H21" s="38"/>
     </row>
     <row r="22" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="38"/>
+      <c r="A22" s="37"/>
       <c r="B22" s="18"/>
       <c r="C22" s="18"/>
       <c r="D22" s="18"/>
       <c r="E22" s="18"/>
       <c r="F22" s="18"/>
       <c r="G22" s="18"/>
-      <c r="H22" s="39"/>
+      <c r="H22" s="38"/>
     </row>
     <row r="23" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="38"/>
+      <c r="A23" s="37"/>
       <c r="B23" s="18"/>
       <c r="C23" s="18"/>
       <c r="D23" s="18"/>
       <c r="E23" s="18"/>
       <c r="F23" s="18"/>
       <c r="G23" s="18"/>
-      <c r="H23" s="39"/>
+      <c r="H23" s="38"/>
     </row>
     <row r="24" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="38"/>
+      <c r="A24" s="37"/>
       <c r="B24" s="18"/>
       <c r="C24" s="18"/>
       <c r="D24" s="18"/>
       <c r="E24" s="18"/>
       <c r="F24" s="18"/>
       <c r="G24" s="18"/>
-      <c r="H24" s="39"/>
+      <c r="H24" s="38"/>
     </row>
     <row r="25" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="38"/>
+      <c r="A25" s="37"/>
       <c r="B25" s="18"/>
       <c r="C25" s="18"/>
       <c r="D25" s="18"/>
       <c r="E25" s="18"/>
       <c r="F25" s="18"/>
       <c r="G25" s="18"/>
-      <c r="H25" s="39"/>
+      <c r="H25" s="38"/>
     </row>
     <row r="26" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A26" s="22"/>
@@ -3379,7 +3372,7 @@
   </sheetPr>
   <dimension ref="A1:H983"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="A5" sqref="A5:H19"/>
     </sheetView>
   </sheetViews>
@@ -4786,7 +4779,9 @@
   </sheetPr>
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:H19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4817,7 +4812,7 @@
       <c r="H2" s="24"/>
     </row>
     <row r="3" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="25" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="20"/>
@@ -4839,156 +4834,156 @@
       <c r="H4" s="24"/>
     </row>
     <row r="5" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="21"/>
+      <c r="A5" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" s="27"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="28"/>
     </row>
     <row r="6" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="38"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="39"/>
+      <c r="A6" s="29"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="31"/>
     </row>
     <row r="7" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="38"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="39"/>
+      <c r="A7" s="29"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="31"/>
     </row>
     <row r="8" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="38"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="39"/>
+      <c r="A8" s="29"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="31"/>
     </row>
     <row r="9" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="38"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="39"/>
+      <c r="A9" s="29"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="31"/>
     </row>
     <row r="10" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="38"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="39"/>
+      <c r="A10" s="29"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="31"/>
     </row>
     <row r="11" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="38"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="39"/>
+      <c r="A11" s="29"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="31"/>
     </row>
     <row r="12" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="38"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="39"/>
+      <c r="A12" s="29"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="31"/>
     </row>
     <row r="13" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="38"/>
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="39"/>
+      <c r="A13" s="29"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="31"/>
     </row>
     <row r="14" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="38"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="39"/>
+      <c r="A14" s="29"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="31"/>
     </row>
     <row r="15" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="38"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="39"/>
+      <c r="A15" s="29"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="31"/>
     </row>
     <row r="16" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="38"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="39"/>
+      <c r="A16" s="29"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="31"/>
     </row>
     <row r="17" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="38"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="39"/>
+      <c r="A17" s="29"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="31"/>
     </row>
     <row r="18" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="38"/>
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="39"/>
+      <c r="A18" s="29"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="31"/>
     </row>
     <row r="19" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="22"/>
-      <c r="B19" s="23"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="24"/>
+      <c r="A19" s="32"/>
+      <c r="B19" s="33"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4997,6 +4992,7 @@
     <mergeCell ref="A5:H19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5034,7 +5030,7 @@
       <c r="H2" s="24"/>
     </row>
     <row r="3" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="39" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="20"/>
@@ -5056,7 +5052,7 @@
       <c r="H4" s="24"/>
     </row>
     <row r="5" spans="1:8" ht="13" x14ac:dyDescent="0.25">
-      <c r="A5" s="41" t="s">
+      <c r="A5" s="40" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="18"/>
@@ -5065,7 +5061,7 @@
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:8" ht="13" x14ac:dyDescent="0.25">
-      <c r="A6" s="41" t="s">
+      <c r="A6" s="40" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="18"/>
@@ -5201,11 +5197,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A1:H2"/>
-    <mergeCell ref="A3:H4"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="B7:C7"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B17:C17"/>
@@ -5218,6 +5209,11 @@
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B16:C16"/>
+    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="A3:H4"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="B7:C7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5289,7 +5285,7 @@
       <c r="H4" s="24"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="37" t="s">
+      <c r="A5" s="36" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="20"/>
@@ -5301,134 +5297,134 @@
       <c r="H5" s="21"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="38"/>
+      <c r="A6" s="37"/>
       <c r="B6" s="18"/>
       <c r="C6" s="18"/>
       <c r="D6" s="18"/>
       <c r="E6" s="18"/>
       <c r="F6" s="18"/>
       <c r="G6" s="18"/>
-      <c r="H6" s="39"/>
+      <c r="H6" s="38"/>
     </row>
     <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="38"/>
+      <c r="A7" s="37"/>
       <c r="B7" s="18"/>
       <c r="C7" s="18"/>
       <c r="D7" s="18"/>
       <c r="E7" s="18"/>
       <c r="F7" s="18"/>
       <c r="G7" s="18"/>
-      <c r="H7" s="39"/>
+      <c r="H7" s="38"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="38"/>
+      <c r="A8" s="37"/>
       <c r="B8" s="18"/>
       <c r="C8" s="18"/>
       <c r="D8" s="18"/>
       <c r="E8" s="18"/>
       <c r="F8" s="18"/>
       <c r="G8" s="18"/>
-      <c r="H8" s="39"/>
+      <c r="H8" s="38"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="38"/>
+      <c r="A9" s="37"/>
       <c r="B9" s="18"/>
       <c r="C9" s="18"/>
       <c r="D9" s="18"/>
       <c r="E9" s="18"/>
       <c r="F9" s="18"/>
       <c r="G9" s="18"/>
-      <c r="H9" s="39"/>
+      <c r="H9" s="38"/>
     </row>
     <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="38"/>
+      <c r="A10" s="37"/>
       <c r="B10" s="18"/>
       <c r="C10" s="18"/>
       <c r="D10" s="18"/>
       <c r="E10" s="18"/>
       <c r="F10" s="18"/>
       <c r="G10" s="18"/>
-      <c r="H10" s="39"/>
+      <c r="H10" s="38"/>
     </row>
     <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="38"/>
+      <c r="A11" s="37"/>
       <c r="B11" s="18"/>
       <c r="C11" s="18"/>
       <c r="D11" s="18"/>
       <c r="E11" s="18"/>
       <c r="F11" s="18"/>
       <c r="G11" s="18"/>
-      <c r="H11" s="39"/>
+      <c r="H11" s="38"/>
     </row>
     <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="38"/>
+      <c r="A12" s="37"/>
       <c r="B12" s="18"/>
       <c r="C12" s="18"/>
       <c r="D12" s="18"/>
       <c r="E12" s="18"/>
       <c r="F12" s="18"/>
       <c r="G12" s="18"/>
-      <c r="H12" s="39"/>
+      <c r="H12" s="38"/>
     </row>
     <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="38"/>
+      <c r="A13" s="37"/>
       <c r="B13" s="18"/>
       <c r="C13" s="18"/>
       <c r="D13" s="18"/>
       <c r="E13" s="18"/>
       <c r="F13" s="18"/>
       <c r="G13" s="18"/>
-      <c r="H13" s="39"/>
+      <c r="H13" s="38"/>
     </row>
     <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="38"/>
+      <c r="A14" s="37"/>
       <c r="B14" s="18"/>
       <c r="C14" s="18"/>
       <c r="D14" s="18"/>
       <c r="E14" s="18"/>
       <c r="F14" s="18"/>
       <c r="G14" s="18"/>
-      <c r="H14" s="39"/>
+      <c r="H14" s="38"/>
     </row>
     <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="38"/>
+      <c r="A15" s="37"/>
       <c r="B15" s="18"/>
       <c r="C15" s="18"/>
       <c r="D15" s="18"/>
       <c r="E15" s="18"/>
       <c r="F15" s="18"/>
       <c r="G15" s="18"/>
-      <c r="H15" s="39"/>
+      <c r="H15" s="38"/>
     </row>
     <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="38"/>
+      <c r="A16" s="37"/>
       <c r="B16" s="18"/>
       <c r="C16" s="18"/>
       <c r="D16" s="18"/>
       <c r="E16" s="18"/>
       <c r="F16" s="18"/>
       <c r="G16" s="18"/>
-      <c r="H16" s="39"/>
+      <c r="H16" s="38"/>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="38"/>
+      <c r="A17" s="37"/>
       <c r="B17" s="18"/>
       <c r="C17" s="18"/>
       <c r="D17" s="18"/>
       <c r="E17" s="18"/>
       <c r="F17" s="18"/>
       <c r="G17" s="18"/>
-      <c r="H17" s="39"/>
+      <c r="H17" s="38"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="38"/>
+      <c r="A18" s="37"/>
       <c r="B18" s="18"/>
       <c r="C18" s="18"/>
       <c r="D18" s="18"/>
       <c r="E18" s="18"/>
       <c r="F18" s="18"/>
       <c r="G18" s="18"/>
-      <c r="H18" s="39"/>
+      <c r="H18" s="38"/>
     </row>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="22"/>
@@ -5451,7 +5447,7 @@
       <c r="H20" s="8"/>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="48" t="s">
+      <c r="A21" s="43" t="s">
         <v>16</v>
       </c>
       <c r="B21" s="20"/>
@@ -5499,89 +5495,89 @@
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="43">
+      <c r="A24" s="45">
         <v>1</v>
       </c>
-      <c r="B24" s="46"/>
-      <c r="C24" s="47"/>
-      <c r="D24" s="47"/>
+      <c r="B24" s="44"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="41"/>
       <c r="E24" s="12"/>
       <c r="F24" s="12"/>
       <c r="G24" s="42"/>
       <c r="H24" s="42"/>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="44"/>
-      <c r="B25" s="39"/>
-      <c r="C25" s="39"/>
-      <c r="D25" s="39"/>
+      <c r="A25" s="46"/>
+      <c r="B25" s="38"/>
+      <c r="C25" s="38"/>
+      <c r="D25" s="38"/>
       <c r="E25" s="13"/>
       <c r="F25" s="13"/>
-      <c r="G25" s="39"/>
-      <c r="H25" s="39"/>
+      <c r="G25" s="38"/>
+      <c r="H25" s="38"/>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="44"/>
-      <c r="B26" s="39"/>
-      <c r="C26" s="39"/>
-      <c r="D26" s="39"/>
+      <c r="A26" s="46"/>
+      <c r="B26" s="38"/>
+      <c r="C26" s="38"/>
+      <c r="D26" s="38"/>
       <c r="E26" s="13"/>
       <c r="F26" s="13"/>
-      <c r="G26" s="39"/>
-      <c r="H26" s="39"/>
+      <c r="G26" s="38"/>
+      <c r="H26" s="38"/>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="44"/>
-      <c r="B27" s="39"/>
-      <c r="C27" s="39"/>
-      <c r="D27" s="39"/>
+      <c r="A27" s="46"/>
+      <c r="B27" s="38"/>
+      <c r="C27" s="38"/>
+      <c r="D27" s="38"/>
       <c r="E27" s="13"/>
       <c r="F27" s="13"/>
-      <c r="G27" s="39"/>
-      <c r="H27" s="39"/>
+      <c r="G27" s="38"/>
+      <c r="H27" s="38"/>
     </row>
     <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="44"/>
-      <c r="B28" s="39"/>
-      <c r="C28" s="39"/>
-      <c r="D28" s="39"/>
+      <c r="A28" s="46"/>
+      <c r="B28" s="38"/>
+      <c r="C28" s="38"/>
+      <c r="D28" s="38"/>
       <c r="E28" s="13"/>
       <c r="F28" s="13"/>
-      <c r="G28" s="39"/>
-      <c r="H28" s="39"/>
+      <c r="G28" s="38"/>
+      <c r="H28" s="38"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="44"/>
-      <c r="B29" s="39"/>
-      <c r="C29" s="39"/>
-      <c r="D29" s="39"/>
+      <c r="A29" s="46"/>
+      <c r="B29" s="38"/>
+      <c r="C29" s="38"/>
+      <c r="D29" s="38"/>
       <c r="E29" s="13"/>
       <c r="F29" s="13"/>
-      <c r="G29" s="39"/>
-      <c r="H29" s="39"/>
+      <c r="G29" s="38"/>
+      <c r="H29" s="38"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="44"/>
-      <c r="B30" s="39"/>
-      <c r="C30" s="39"/>
-      <c r="D30" s="39"/>
+      <c r="A30" s="46"/>
+      <c r="B30" s="38"/>
+      <c r="C30" s="38"/>
+      <c r="D30" s="38"/>
       <c r="E30" s="13"/>
       <c r="F30" s="13"/>
-      <c r="G30" s="39"/>
-      <c r="H30" s="39"/>
+      <c r="G30" s="38"/>
+      <c r="H30" s="38"/>
     </row>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="44"/>
-      <c r="B31" s="39"/>
-      <c r="C31" s="39"/>
-      <c r="D31" s="39"/>
+      <c r="A31" s="46"/>
+      <c r="B31" s="38"/>
+      <c r="C31" s="38"/>
+      <c r="D31" s="38"/>
       <c r="E31" s="13"/>
       <c r="F31" s="13"/>
-      <c r="G31" s="39"/>
-      <c r="H31" s="39"/>
+      <c r="G31" s="38"/>
+      <c r="H31" s="38"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="45"/>
+      <c r="A32" s="47"/>
       <c r="B32" s="24"/>
       <c r="C32" s="24"/>
       <c r="D32" s="24"/>
@@ -5617,89 +5613,89 @@
       </c>
     </row>
     <row r="34" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="43">
+      <c r="A34" s="45">
         <v>2</v>
       </c>
-      <c r="B34" s="46"/>
-      <c r="C34" s="47"/>
-      <c r="D34" s="47"/>
+      <c r="B34" s="44"/>
+      <c r="C34" s="41"/>
+      <c r="D34" s="41"/>
       <c r="E34" s="12"/>
       <c r="F34" s="12"/>
       <c r="G34" s="42"/>
       <c r="H34" s="42"/>
     </row>
     <row r="35" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="44"/>
-      <c r="B35" s="39"/>
-      <c r="C35" s="39"/>
-      <c r="D35" s="39"/>
+      <c r="A35" s="46"/>
+      <c r="B35" s="38"/>
+      <c r="C35" s="38"/>
+      <c r="D35" s="38"/>
       <c r="E35" s="13"/>
       <c r="F35" s="13"/>
-      <c r="G35" s="39"/>
-      <c r="H35" s="39"/>
+      <c r="G35" s="38"/>
+      <c r="H35" s="38"/>
     </row>
     <row r="36" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="44"/>
-      <c r="B36" s="39"/>
-      <c r="C36" s="39"/>
-      <c r="D36" s="39"/>
+      <c r="A36" s="46"/>
+      <c r="B36" s="38"/>
+      <c r="C36" s="38"/>
+      <c r="D36" s="38"/>
       <c r="E36" s="13"/>
       <c r="F36" s="13"/>
-      <c r="G36" s="39"/>
-      <c r="H36" s="39"/>
+      <c r="G36" s="38"/>
+      <c r="H36" s="38"/>
     </row>
     <row r="37" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="44"/>
-      <c r="B37" s="39"/>
-      <c r="C37" s="39"/>
-      <c r="D37" s="39"/>
+      <c r="A37" s="46"/>
+      <c r="B37" s="38"/>
+      <c r="C37" s="38"/>
+      <c r="D37" s="38"/>
       <c r="E37" s="13"/>
       <c r="F37" s="13"/>
-      <c r="G37" s="39"/>
-      <c r="H37" s="39"/>
+      <c r="G37" s="38"/>
+      <c r="H37" s="38"/>
     </row>
     <row r="38" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="44"/>
-      <c r="B38" s="39"/>
-      <c r="C38" s="39"/>
-      <c r="D38" s="39"/>
+      <c r="A38" s="46"/>
+      <c r="B38" s="38"/>
+      <c r="C38" s="38"/>
+      <c r="D38" s="38"/>
       <c r="E38" s="13"/>
       <c r="F38" s="13"/>
-      <c r="G38" s="39"/>
-      <c r="H38" s="39"/>
+      <c r="G38" s="38"/>
+      <c r="H38" s="38"/>
     </row>
     <row r="39" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="44"/>
-      <c r="B39" s="39"/>
-      <c r="C39" s="39"/>
-      <c r="D39" s="39"/>
+      <c r="A39" s="46"/>
+      <c r="B39" s="38"/>
+      <c r="C39" s="38"/>
+      <c r="D39" s="38"/>
       <c r="E39" s="13"/>
       <c r="F39" s="13"/>
-      <c r="G39" s="39"/>
-      <c r="H39" s="39"/>
+      <c r="G39" s="38"/>
+      <c r="H39" s="38"/>
     </row>
     <row r="40" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="44"/>
-      <c r="B40" s="39"/>
-      <c r="C40" s="39"/>
-      <c r="D40" s="39"/>
+      <c r="A40" s="46"/>
+      <c r="B40" s="38"/>
+      <c r="C40" s="38"/>
+      <c r="D40" s="38"/>
       <c r="E40" s="13"/>
       <c r="F40" s="13"/>
-      <c r="G40" s="39"/>
-      <c r="H40" s="39"/>
+      <c r="G40" s="38"/>
+      <c r="H40" s="38"/>
     </row>
     <row r="41" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="44"/>
-      <c r="B41" s="39"/>
-      <c r="C41" s="39"/>
-      <c r="D41" s="39"/>
+      <c r="A41" s="46"/>
+      <c r="B41" s="38"/>
+      <c r="C41" s="38"/>
+      <c r="D41" s="38"/>
       <c r="E41" s="13"/>
       <c r="F41" s="13"/>
-      <c r="G41" s="39"/>
-      <c r="H41" s="39"/>
+      <c r="G41" s="38"/>
+      <c r="H41" s="38"/>
     </row>
     <row r="42" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="45"/>
+      <c r="A42" s="47"/>
       <c r="B42" s="24"/>
       <c r="C42" s="24"/>
       <c r="D42" s="24"/>
@@ -5735,89 +5731,89 @@
       </c>
     </row>
     <row r="44" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="43">
+      <c r="A44" s="45">
         <v>3</v>
       </c>
-      <c r="B44" s="46"/>
-      <c r="C44" s="47"/>
-      <c r="D44" s="47"/>
+      <c r="B44" s="44"/>
+      <c r="C44" s="41"/>
+      <c r="D44" s="41"/>
       <c r="E44" s="12"/>
       <c r="F44" s="12"/>
       <c r="G44" s="42"/>
       <c r="H44" s="42"/>
     </row>
     <row r="45" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="44"/>
-      <c r="B45" s="39"/>
-      <c r="C45" s="39"/>
-      <c r="D45" s="39"/>
+      <c r="A45" s="46"/>
+      <c r="B45" s="38"/>
+      <c r="C45" s="38"/>
+      <c r="D45" s="38"/>
       <c r="E45" s="13"/>
       <c r="F45" s="13"/>
-      <c r="G45" s="39"/>
-      <c r="H45" s="39"/>
+      <c r="G45" s="38"/>
+      <c r="H45" s="38"/>
     </row>
     <row r="46" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="44"/>
-      <c r="B46" s="39"/>
-      <c r="C46" s="39"/>
-      <c r="D46" s="39"/>
+      <c r="A46" s="46"/>
+      <c r="B46" s="38"/>
+      <c r="C46" s="38"/>
+      <c r="D46" s="38"/>
       <c r="E46" s="13"/>
       <c r="F46" s="13"/>
-      <c r="G46" s="39"/>
-      <c r="H46" s="39"/>
+      <c r="G46" s="38"/>
+      <c r="H46" s="38"/>
     </row>
     <row r="47" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="44"/>
-      <c r="B47" s="39"/>
-      <c r="C47" s="39"/>
-      <c r="D47" s="39"/>
+      <c r="A47" s="46"/>
+      <c r="B47" s="38"/>
+      <c r="C47" s="38"/>
+      <c r="D47" s="38"/>
       <c r="E47" s="13"/>
       <c r="F47" s="13"/>
-      <c r="G47" s="39"/>
-      <c r="H47" s="39"/>
+      <c r="G47" s="38"/>
+      <c r="H47" s="38"/>
     </row>
     <row r="48" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="44"/>
-      <c r="B48" s="39"/>
-      <c r="C48" s="39"/>
-      <c r="D48" s="39"/>
+      <c r="A48" s="46"/>
+      <c r="B48" s="38"/>
+      <c r="C48" s="38"/>
+      <c r="D48" s="38"/>
       <c r="E48" s="13"/>
       <c r="F48" s="13"/>
-      <c r="G48" s="39"/>
-      <c r="H48" s="39"/>
+      <c r="G48" s="38"/>
+      <c r="H48" s="38"/>
     </row>
     <row r="49" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="44"/>
-      <c r="B49" s="39"/>
-      <c r="C49" s="39"/>
-      <c r="D49" s="39"/>
+      <c r="A49" s="46"/>
+      <c r="B49" s="38"/>
+      <c r="C49" s="38"/>
+      <c r="D49" s="38"/>
       <c r="E49" s="13"/>
       <c r="F49" s="13"/>
-      <c r="G49" s="39"/>
-      <c r="H49" s="39"/>
+      <c r="G49" s="38"/>
+      <c r="H49" s="38"/>
     </row>
     <row r="50" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="44"/>
-      <c r="B50" s="39"/>
-      <c r="C50" s="39"/>
-      <c r="D50" s="39"/>
+      <c r="A50" s="46"/>
+      <c r="B50" s="38"/>
+      <c r="C50" s="38"/>
+      <c r="D50" s="38"/>
       <c r="E50" s="13"/>
       <c r="F50" s="13"/>
-      <c r="G50" s="39"/>
-      <c r="H50" s="39"/>
+      <c r="G50" s="38"/>
+      <c r="H50" s="38"/>
     </row>
     <row r="51" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="44"/>
-      <c r="B51" s="39"/>
-      <c r="C51" s="39"/>
-      <c r="D51" s="39"/>
+      <c r="A51" s="46"/>
+      <c r="B51" s="38"/>
+      <c r="C51" s="38"/>
+      <c r="D51" s="38"/>
       <c r="E51" s="13"/>
       <c r="F51" s="13"/>
-      <c r="G51" s="39"/>
-      <c r="H51" s="39"/>
+      <c r="G51" s="38"/>
+      <c r="H51" s="38"/>
     </row>
     <row r="52" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="45"/>
+      <c r="A52" s="47"/>
       <c r="B52" s="24"/>
       <c r="C52" s="24"/>
       <c r="D52" s="24"/>
@@ -5853,89 +5849,89 @@
       </c>
     </row>
     <row r="54" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="43">
+      <c r="A54" s="45">
         <v>4</v>
       </c>
-      <c r="B54" s="46"/>
-      <c r="C54" s="47"/>
-      <c r="D54" s="47"/>
+      <c r="B54" s="44"/>
+      <c r="C54" s="41"/>
+      <c r="D54" s="41"/>
       <c r="E54" s="12"/>
       <c r="F54" s="12"/>
       <c r="G54" s="42"/>
       <c r="H54" s="42"/>
     </row>
     <row r="55" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="44"/>
-      <c r="B55" s="39"/>
-      <c r="C55" s="39"/>
-      <c r="D55" s="39"/>
+      <c r="A55" s="46"/>
+      <c r="B55" s="38"/>
+      <c r="C55" s="38"/>
+      <c r="D55" s="38"/>
       <c r="E55" s="13"/>
       <c r="F55" s="13"/>
-      <c r="G55" s="39"/>
-      <c r="H55" s="39"/>
+      <c r="G55" s="38"/>
+      <c r="H55" s="38"/>
     </row>
     <row r="56" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="44"/>
-      <c r="B56" s="39"/>
-      <c r="C56" s="39"/>
-      <c r="D56" s="39"/>
+      <c r="A56" s="46"/>
+      <c r="B56" s="38"/>
+      <c r="C56" s="38"/>
+      <c r="D56" s="38"/>
       <c r="E56" s="13"/>
       <c r="F56" s="13"/>
-      <c r="G56" s="39"/>
-      <c r="H56" s="39"/>
+      <c r="G56" s="38"/>
+      <c r="H56" s="38"/>
     </row>
     <row r="57" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="44"/>
-      <c r="B57" s="39"/>
-      <c r="C57" s="39"/>
-      <c r="D57" s="39"/>
+      <c r="A57" s="46"/>
+      <c r="B57" s="38"/>
+      <c r="C57" s="38"/>
+      <c r="D57" s="38"/>
       <c r="E57" s="13"/>
       <c r="F57" s="13"/>
-      <c r="G57" s="39"/>
-      <c r="H57" s="39"/>
+      <c r="G57" s="38"/>
+      <c r="H57" s="38"/>
     </row>
     <row r="58" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="44"/>
-      <c r="B58" s="39"/>
-      <c r="C58" s="39"/>
-      <c r="D58" s="39"/>
+      <c r="A58" s="46"/>
+      <c r="B58" s="38"/>
+      <c r="C58" s="38"/>
+      <c r="D58" s="38"/>
       <c r="E58" s="13"/>
       <c r="F58" s="13"/>
-      <c r="G58" s="39"/>
-      <c r="H58" s="39"/>
+      <c r="G58" s="38"/>
+      <c r="H58" s="38"/>
     </row>
     <row r="59" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="44"/>
-      <c r="B59" s="39"/>
-      <c r="C59" s="39"/>
-      <c r="D59" s="39"/>
+      <c r="A59" s="46"/>
+      <c r="B59" s="38"/>
+      <c r="C59" s="38"/>
+      <c r="D59" s="38"/>
       <c r="E59" s="13"/>
       <c r="F59" s="13"/>
-      <c r="G59" s="39"/>
-      <c r="H59" s="39"/>
+      <c r="G59" s="38"/>
+      <c r="H59" s="38"/>
     </row>
     <row r="60" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="44"/>
-      <c r="B60" s="39"/>
-      <c r="C60" s="39"/>
-      <c r="D60" s="39"/>
+      <c r="A60" s="46"/>
+      <c r="B60" s="38"/>
+      <c r="C60" s="38"/>
+      <c r="D60" s="38"/>
       <c r="E60" s="13"/>
       <c r="F60" s="13"/>
-      <c r="G60" s="39"/>
-      <c r="H60" s="39"/>
+      <c r="G60" s="38"/>
+      <c r="H60" s="38"/>
     </row>
     <row r="61" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="44"/>
-      <c r="B61" s="39"/>
-      <c r="C61" s="39"/>
-      <c r="D61" s="39"/>
+      <c r="A61" s="46"/>
+      <c r="B61" s="38"/>
+      <c r="C61" s="38"/>
+      <c r="D61" s="38"/>
       <c r="E61" s="13"/>
       <c r="F61" s="13"/>
-      <c r="G61" s="39"/>
-      <c r="H61" s="39"/>
+      <c r="G61" s="38"/>
+      <c r="H61" s="38"/>
     </row>
     <row r="62" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="45"/>
+      <c r="A62" s="47"/>
       <c r="B62" s="24"/>
       <c r="C62" s="24"/>
       <c r="D62" s="24"/>
@@ -5971,89 +5967,89 @@
       </c>
     </row>
     <row r="64" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="43" t="s">
+      <c r="A64" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="B64" s="46"/>
-      <c r="C64" s="47"/>
-      <c r="D64" s="47"/>
+      <c r="B64" s="44"/>
+      <c r="C64" s="41"/>
+      <c r="D64" s="41"/>
       <c r="E64" s="12"/>
       <c r="F64" s="12"/>
       <c r="G64" s="42"/>
       <c r="H64" s="42"/>
     </row>
     <row r="65" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="44"/>
-      <c r="B65" s="39"/>
-      <c r="C65" s="39"/>
-      <c r="D65" s="39"/>
+      <c r="A65" s="46"/>
+      <c r="B65" s="38"/>
+      <c r="C65" s="38"/>
+      <c r="D65" s="38"/>
       <c r="E65" s="13"/>
       <c r="F65" s="13"/>
-      <c r="G65" s="39"/>
-      <c r="H65" s="39"/>
+      <c r="G65" s="38"/>
+      <c r="H65" s="38"/>
     </row>
     <row r="66" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="44"/>
-      <c r="B66" s="39"/>
-      <c r="C66" s="39"/>
-      <c r="D66" s="39"/>
+      <c r="A66" s="46"/>
+      <c r="B66" s="38"/>
+      <c r="C66" s="38"/>
+      <c r="D66" s="38"/>
       <c r="E66" s="13"/>
       <c r="F66" s="13"/>
-      <c r="G66" s="39"/>
-      <c r="H66" s="39"/>
+      <c r="G66" s="38"/>
+      <c r="H66" s="38"/>
     </row>
     <row r="67" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="44"/>
-      <c r="B67" s="39"/>
-      <c r="C67" s="39"/>
-      <c r="D67" s="39"/>
+      <c r="A67" s="46"/>
+      <c r="B67" s="38"/>
+      <c r="C67" s="38"/>
+      <c r="D67" s="38"/>
       <c r="E67" s="13"/>
       <c r="F67" s="13"/>
-      <c r="G67" s="39"/>
-      <c r="H67" s="39"/>
+      <c r="G67" s="38"/>
+      <c r="H67" s="38"/>
     </row>
     <row r="68" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="44"/>
-      <c r="B68" s="39"/>
-      <c r="C68" s="39"/>
-      <c r="D68" s="39"/>
+      <c r="A68" s="46"/>
+      <c r="B68" s="38"/>
+      <c r="C68" s="38"/>
+      <c r="D68" s="38"/>
       <c r="E68" s="13"/>
       <c r="F68" s="13"/>
-      <c r="G68" s="39"/>
-      <c r="H68" s="39"/>
+      <c r="G68" s="38"/>
+      <c r="H68" s="38"/>
     </row>
     <row r="69" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="44"/>
-      <c r="B69" s="39"/>
-      <c r="C69" s="39"/>
-      <c r="D69" s="39"/>
+      <c r="A69" s="46"/>
+      <c r="B69" s="38"/>
+      <c r="C69" s="38"/>
+      <c r="D69" s="38"/>
       <c r="E69" s="13"/>
       <c r="F69" s="13"/>
-      <c r="G69" s="39"/>
-      <c r="H69" s="39"/>
+      <c r="G69" s="38"/>
+      <c r="H69" s="38"/>
     </row>
     <row r="70" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="44"/>
-      <c r="B70" s="39"/>
-      <c r="C70" s="39"/>
-      <c r="D70" s="39"/>
+      <c r="A70" s="46"/>
+      <c r="B70" s="38"/>
+      <c r="C70" s="38"/>
+      <c r="D70" s="38"/>
       <c r="E70" s="13"/>
       <c r="F70" s="13"/>
-      <c r="G70" s="39"/>
-      <c r="H70" s="39"/>
+      <c r="G70" s="38"/>
+      <c r="H70" s="38"/>
     </row>
     <row r="71" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="44"/>
-      <c r="B71" s="39"/>
-      <c r="C71" s="39"/>
-      <c r="D71" s="39"/>
+      <c r="A71" s="46"/>
+      <c r="B71" s="38"/>
+      <c r="C71" s="38"/>
+      <c r="D71" s="38"/>
       <c r="E71" s="13"/>
       <c r="F71" s="13"/>
-      <c r="G71" s="39"/>
-      <c r="H71" s="39"/>
+      <c r="G71" s="38"/>
+      <c r="H71" s="38"/>
     </row>
     <row r="72" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="45"/>
+      <c r="A72" s="47"/>
       <c r="B72" s="24"/>
       <c r="C72" s="24"/>
       <c r="D72" s="24"/>
@@ -6991,24 +6987,6 @@
     <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="D24:D32"/>
-    <mergeCell ref="G24:G32"/>
-    <mergeCell ref="G34:G42"/>
-    <mergeCell ref="H34:H42"/>
-    <mergeCell ref="A1:H2"/>
-    <mergeCell ref="A21:H22"/>
-    <mergeCell ref="B24:B32"/>
-    <mergeCell ref="C24:C32"/>
-    <mergeCell ref="H24:H32"/>
-    <mergeCell ref="A3:H4"/>
-    <mergeCell ref="A5:H19"/>
-    <mergeCell ref="H44:H52"/>
-    <mergeCell ref="A54:A62"/>
-    <mergeCell ref="B54:B62"/>
-    <mergeCell ref="C54:C62"/>
-    <mergeCell ref="D54:D62"/>
-    <mergeCell ref="G54:G62"/>
-    <mergeCell ref="H54:H62"/>
     <mergeCell ref="H64:H72"/>
     <mergeCell ref="A24:A32"/>
     <mergeCell ref="A34:A42"/>
@@ -7025,6 +7003,24 @@
     <mergeCell ref="C44:C52"/>
     <mergeCell ref="D44:D52"/>
     <mergeCell ref="G44:G52"/>
+    <mergeCell ref="H44:H52"/>
+    <mergeCell ref="A54:A62"/>
+    <mergeCell ref="B54:B62"/>
+    <mergeCell ref="C54:C62"/>
+    <mergeCell ref="D54:D62"/>
+    <mergeCell ref="G54:G62"/>
+    <mergeCell ref="H54:H62"/>
+    <mergeCell ref="D24:D32"/>
+    <mergeCell ref="G24:G32"/>
+    <mergeCell ref="G34:G42"/>
+    <mergeCell ref="H34:H42"/>
+    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="A21:H22"/>
+    <mergeCell ref="B24:B32"/>
+    <mergeCell ref="C24:C32"/>
+    <mergeCell ref="H24:H32"/>
+    <mergeCell ref="A3:H4"/>
+    <mergeCell ref="A5:H19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7070,7 +7066,7 @@
       <c r="H2" s="24"/>
     </row>
     <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="48" t="s">
         <v>24</v>
       </c>
       <c r="B3" s="20"/>
@@ -7118,89 +7114,89 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="43">
+      <c r="A6" s="45">
         <v>1</v>
       </c>
-      <c r="B6" s="46"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
       <c r="E6" s="12"/>
       <c r="F6" s="12"/>
       <c r="G6" s="42"/>
       <c r="H6" s="42"/>
     </row>
     <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="44"/>
-      <c r="B7" s="39"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
+      <c r="A7" s="46"/>
+      <c r="B7" s="38"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
       <c r="E7" s="13"/>
       <c r="F7" s="13"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
     </row>
     <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="44"/>
-      <c r="B8" s="39"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="39"/>
+      <c r="A8" s="46"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
       <c r="E8" s="13"/>
       <c r="F8" s="13"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="39"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
     </row>
     <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="44"/>
-      <c r="B9" s="39"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
+      <c r="A9" s="46"/>
+      <c r="B9" s="38"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
       <c r="E9" s="13"/>
       <c r="F9" s="13"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="39"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
     </row>
     <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="44"/>
-      <c r="B10" s="39"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="39"/>
+      <c r="A10" s="46"/>
+      <c r="B10" s="38"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="38"/>
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
-      <c r="G10" s="39"/>
-      <c r="H10" s="39"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="38"/>
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="44"/>
-      <c r="B11" s="39"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="39"/>
+      <c r="A11" s="46"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
       <c r="E11" s="13"/>
       <c r="F11" s="13"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="39"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="38"/>
     </row>
     <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="44"/>
-      <c r="B12" s="39"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="39"/>
+      <c r="A12" s="46"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="38"/>
       <c r="E12" s="13"/>
       <c r="F12" s="13"/>
-      <c r="G12" s="39"/>
-      <c r="H12" s="39"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="38"/>
     </row>
     <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="44"/>
-      <c r="B13" s="39"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="39"/>
+      <c r="A13" s="46"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="38"/>
       <c r="E13" s="13"/>
       <c r="F13" s="13"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="39"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="38"/>
     </row>
     <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="45"/>
+      <c r="A14" s="47"/>
       <c r="B14" s="24"/>
       <c r="C14" s="24"/>
       <c r="D14" s="24"/>
@@ -7236,89 +7232,89 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="43">
+      <c r="A16" s="45">
         <v>2</v>
       </c>
-      <c r="B16" s="46"/>
-      <c r="C16" s="47"/>
-      <c r="D16" s="47"/>
+      <c r="B16" s="44"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
       <c r="E16" s="12"/>
       <c r="F16" s="12"/>
       <c r="G16" s="42"/>
       <c r="H16" s="42"/>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="44"/>
-      <c r="B17" s="39"/>
-      <c r="C17" s="39"/>
-      <c r="D17" s="39"/>
+      <c r="A17" s="46"/>
+      <c r="B17" s="38"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="38"/>
       <c r="E17" s="13"/>
       <c r="F17" s="13"/>
-      <c r="G17" s="39"/>
-      <c r="H17" s="39"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="38"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="44"/>
-      <c r="B18" s="39"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="39"/>
+      <c r="A18" s="46"/>
+      <c r="B18" s="38"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="38"/>
       <c r="E18" s="13"/>
       <c r="F18" s="13"/>
-      <c r="G18" s="39"/>
-      <c r="H18" s="39"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="38"/>
     </row>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="44"/>
-      <c r="B19" s="39"/>
-      <c r="C19" s="39"/>
-      <c r="D19" s="39"/>
+      <c r="A19" s="46"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="38"/>
       <c r="E19" s="13"/>
       <c r="F19" s="13"/>
-      <c r="G19" s="39"/>
-      <c r="H19" s="39"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="38"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="44"/>
-      <c r="B20" s="39"/>
-      <c r="C20" s="39"/>
-      <c r="D20" s="39"/>
+      <c r="A20" s="46"/>
+      <c r="B20" s="38"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="38"/>
       <c r="E20" s="13"/>
       <c r="F20" s="13"/>
-      <c r="G20" s="39"/>
-      <c r="H20" s="39"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="38"/>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="44"/>
-      <c r="B21" s="39"/>
-      <c r="C21" s="39"/>
-      <c r="D21" s="39"/>
+      <c r="A21" s="46"/>
+      <c r="B21" s="38"/>
+      <c r="C21" s="38"/>
+      <c r="D21" s="38"/>
       <c r="E21" s="13"/>
       <c r="F21" s="13"/>
-      <c r="G21" s="39"/>
-      <c r="H21" s="39"/>
+      <c r="G21" s="38"/>
+      <c r="H21" s="38"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="44"/>
-      <c r="B22" s="39"/>
-      <c r="C22" s="39"/>
-      <c r="D22" s="39"/>
+      <c r="A22" s="46"/>
+      <c r="B22" s="38"/>
+      <c r="C22" s="38"/>
+      <c r="D22" s="38"/>
       <c r="E22" s="13"/>
       <c r="F22" s="13"/>
-      <c r="G22" s="39"/>
-      <c r="H22" s="39"/>
+      <c r="G22" s="38"/>
+      <c r="H22" s="38"/>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="44"/>
-      <c r="B23" s="39"/>
-      <c r="C23" s="39"/>
-      <c r="D23" s="39"/>
+      <c r="A23" s="46"/>
+      <c r="B23" s="38"/>
+      <c r="C23" s="38"/>
+      <c r="D23" s="38"/>
       <c r="E23" s="13"/>
       <c r="F23" s="13"/>
-      <c r="G23" s="39"/>
-      <c r="H23" s="39"/>
+      <c r="G23" s="38"/>
+      <c r="H23" s="38"/>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="45"/>
+      <c r="A24" s="47"/>
       <c r="B24" s="24"/>
       <c r="C24" s="24"/>
       <c r="D24" s="24"/>
@@ -7354,89 +7350,89 @@
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="43">
+      <c r="A26" s="45">
         <v>3</v>
       </c>
-      <c r="B26" s="46"/>
-      <c r="C26" s="47"/>
-      <c r="D26" s="47"/>
+      <c r="B26" s="44"/>
+      <c r="C26" s="41"/>
+      <c r="D26" s="41"/>
       <c r="E26" s="12"/>
       <c r="F26" s="12"/>
       <c r="G26" s="42"/>
       <c r="H26" s="42"/>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="44"/>
-      <c r="B27" s="39"/>
-      <c r="C27" s="39"/>
-      <c r="D27" s="39"/>
+      <c r="A27" s="46"/>
+      <c r="B27" s="38"/>
+      <c r="C27" s="38"/>
+      <c r="D27" s="38"/>
       <c r="E27" s="13"/>
       <c r="F27" s="13"/>
-      <c r="G27" s="39"/>
-      <c r="H27" s="39"/>
+      <c r="G27" s="38"/>
+      <c r="H27" s="38"/>
     </row>
     <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="44"/>
-      <c r="B28" s="39"/>
-      <c r="C28" s="39"/>
-      <c r="D28" s="39"/>
+      <c r="A28" s="46"/>
+      <c r="B28" s="38"/>
+      <c r="C28" s="38"/>
+      <c r="D28" s="38"/>
       <c r="E28" s="13"/>
       <c r="F28" s="13"/>
-      <c r="G28" s="39"/>
-      <c r="H28" s="39"/>
+      <c r="G28" s="38"/>
+      <c r="H28" s="38"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="44"/>
-      <c r="B29" s="39"/>
-      <c r="C29" s="39"/>
-      <c r="D29" s="39"/>
+      <c r="A29" s="46"/>
+      <c r="B29" s="38"/>
+      <c r="C29" s="38"/>
+      <c r="D29" s="38"/>
       <c r="E29" s="13"/>
       <c r="F29" s="13"/>
-      <c r="G29" s="39"/>
-      <c r="H29" s="39"/>
+      <c r="G29" s="38"/>
+      <c r="H29" s="38"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="44"/>
-      <c r="B30" s="39"/>
-      <c r="C30" s="39"/>
-      <c r="D30" s="39"/>
+      <c r="A30" s="46"/>
+      <c r="B30" s="38"/>
+      <c r="C30" s="38"/>
+      <c r="D30" s="38"/>
       <c r="E30" s="13"/>
       <c r="F30" s="13"/>
-      <c r="G30" s="39"/>
-      <c r="H30" s="39"/>
+      <c r="G30" s="38"/>
+      <c r="H30" s="38"/>
     </row>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="44"/>
-      <c r="B31" s="39"/>
-      <c r="C31" s="39"/>
-      <c r="D31" s="39"/>
+      <c r="A31" s="46"/>
+      <c r="B31" s="38"/>
+      <c r="C31" s="38"/>
+      <c r="D31" s="38"/>
       <c r="E31" s="13"/>
       <c r="F31" s="13"/>
-      <c r="G31" s="39"/>
-      <c r="H31" s="39"/>
+      <c r="G31" s="38"/>
+      <c r="H31" s="38"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="44"/>
-      <c r="B32" s="39"/>
-      <c r="C32" s="39"/>
-      <c r="D32" s="39"/>
+      <c r="A32" s="46"/>
+      <c r="B32" s="38"/>
+      <c r="C32" s="38"/>
+      <c r="D32" s="38"/>
       <c r="E32" s="13"/>
       <c r="F32" s="13"/>
-      <c r="G32" s="39"/>
-      <c r="H32" s="39"/>
+      <c r="G32" s="38"/>
+      <c r="H32" s="38"/>
     </row>
     <row r="33" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="44"/>
-      <c r="B33" s="39"/>
-      <c r="C33" s="39"/>
-      <c r="D33" s="39"/>
+      <c r="A33" s="46"/>
+      <c r="B33" s="38"/>
+      <c r="C33" s="38"/>
+      <c r="D33" s="38"/>
       <c r="E33" s="13"/>
       <c r="F33" s="13"/>
-      <c r="G33" s="39"/>
-      <c r="H33" s="39"/>
+      <c r="G33" s="38"/>
+      <c r="H33" s="38"/>
     </row>
     <row r="34" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="45"/>
+      <c r="A34" s="47"/>
       <c r="B34" s="24"/>
       <c r="C34" s="24"/>
       <c r="D34" s="24"/>
@@ -7472,89 +7468,89 @@
       </c>
     </row>
     <row r="36" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="43">
+      <c r="A36" s="45">
         <v>4</v>
       </c>
-      <c r="B36" s="46"/>
-      <c r="C36" s="47"/>
-      <c r="D36" s="47"/>
+      <c r="B36" s="44"/>
+      <c r="C36" s="41"/>
+      <c r="D36" s="41"/>
       <c r="E36" s="12"/>
       <c r="F36" s="12"/>
       <c r="G36" s="42"/>
       <c r="H36" s="42"/>
     </row>
     <row r="37" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="44"/>
-      <c r="B37" s="39"/>
-      <c r="C37" s="39"/>
-      <c r="D37" s="39"/>
+      <c r="A37" s="46"/>
+      <c r="B37" s="38"/>
+      <c r="C37" s="38"/>
+      <c r="D37" s="38"/>
       <c r="E37" s="13"/>
       <c r="F37" s="13"/>
-      <c r="G37" s="39"/>
-      <c r="H37" s="39"/>
+      <c r="G37" s="38"/>
+      <c r="H37" s="38"/>
     </row>
     <row r="38" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="44"/>
-      <c r="B38" s="39"/>
-      <c r="C38" s="39"/>
-      <c r="D38" s="39"/>
+      <c r="A38" s="46"/>
+      <c r="B38" s="38"/>
+      <c r="C38" s="38"/>
+      <c r="D38" s="38"/>
       <c r="E38" s="13"/>
       <c r="F38" s="13"/>
-      <c r="G38" s="39"/>
-      <c r="H38" s="39"/>
+      <c r="G38" s="38"/>
+      <c r="H38" s="38"/>
     </row>
     <row r="39" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="44"/>
-      <c r="B39" s="39"/>
-      <c r="C39" s="39"/>
-      <c r="D39" s="39"/>
+      <c r="A39" s="46"/>
+      <c r="B39" s="38"/>
+      <c r="C39" s="38"/>
+      <c r="D39" s="38"/>
       <c r="E39" s="13"/>
       <c r="F39" s="13"/>
-      <c r="G39" s="39"/>
-      <c r="H39" s="39"/>
+      <c r="G39" s="38"/>
+      <c r="H39" s="38"/>
     </row>
     <row r="40" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="44"/>
-      <c r="B40" s="39"/>
-      <c r="C40" s="39"/>
-      <c r="D40" s="39"/>
+      <c r="A40" s="46"/>
+      <c r="B40" s="38"/>
+      <c r="C40" s="38"/>
+      <c r="D40" s="38"/>
       <c r="E40" s="13"/>
       <c r="F40" s="13"/>
-      <c r="G40" s="39"/>
-      <c r="H40" s="39"/>
+      <c r="G40" s="38"/>
+      <c r="H40" s="38"/>
     </row>
     <row r="41" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="44"/>
-      <c r="B41" s="39"/>
-      <c r="C41" s="39"/>
-      <c r="D41" s="39"/>
+      <c r="A41" s="46"/>
+      <c r="B41" s="38"/>
+      <c r="C41" s="38"/>
+      <c r="D41" s="38"/>
       <c r="E41" s="13"/>
       <c r="F41" s="13"/>
-      <c r="G41" s="39"/>
-      <c r="H41" s="39"/>
+      <c r="G41" s="38"/>
+      <c r="H41" s="38"/>
     </row>
     <row r="42" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="44"/>
-      <c r="B42" s="39"/>
-      <c r="C42" s="39"/>
-      <c r="D42" s="39"/>
+      <c r="A42" s="46"/>
+      <c r="B42" s="38"/>
+      <c r="C42" s="38"/>
+      <c r="D42" s="38"/>
       <c r="E42" s="13"/>
       <c r="F42" s="13"/>
-      <c r="G42" s="39"/>
-      <c r="H42" s="39"/>
+      <c r="G42" s="38"/>
+      <c r="H42" s="38"/>
     </row>
     <row r="43" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="44"/>
-      <c r="B43" s="39"/>
-      <c r="C43" s="39"/>
-      <c r="D43" s="39"/>
+      <c r="A43" s="46"/>
+      <c r="B43" s="38"/>
+      <c r="C43" s="38"/>
+      <c r="D43" s="38"/>
       <c r="E43" s="13"/>
       <c r="F43" s="13"/>
-      <c r="G43" s="39"/>
-      <c r="H43" s="39"/>
+      <c r="G43" s="38"/>
+      <c r="H43" s="38"/>
     </row>
     <row r="44" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="45"/>
+      <c r="A44" s="47"/>
       <c r="B44" s="24"/>
       <c r="C44" s="24"/>
       <c r="D44" s="24"/>
@@ -7590,89 +7586,89 @@
       </c>
     </row>
     <row r="46" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="43" t="s">
+      <c r="A46" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="B46" s="46"/>
-      <c r="C46" s="47"/>
-      <c r="D46" s="47"/>
+      <c r="B46" s="44"/>
+      <c r="C46" s="41"/>
+      <c r="D46" s="41"/>
       <c r="E46" s="12"/>
       <c r="F46" s="12"/>
       <c r="G46" s="42"/>
       <c r="H46" s="42"/>
     </row>
     <row r="47" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="44"/>
-      <c r="B47" s="39"/>
-      <c r="C47" s="39"/>
-      <c r="D47" s="39"/>
+      <c r="A47" s="46"/>
+      <c r="B47" s="38"/>
+      <c r="C47" s="38"/>
+      <c r="D47" s="38"/>
       <c r="E47" s="13"/>
       <c r="F47" s="13"/>
-      <c r="G47" s="39"/>
-      <c r="H47" s="39"/>
+      <c r="G47" s="38"/>
+      <c r="H47" s="38"/>
     </row>
     <row r="48" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="44"/>
-      <c r="B48" s="39"/>
-      <c r="C48" s="39"/>
-      <c r="D48" s="39"/>
+      <c r="A48" s="46"/>
+      <c r="B48" s="38"/>
+      <c r="C48" s="38"/>
+      <c r="D48" s="38"/>
       <c r="E48" s="13"/>
       <c r="F48" s="13"/>
-      <c r="G48" s="39"/>
-      <c r="H48" s="39"/>
+      <c r="G48" s="38"/>
+      <c r="H48" s="38"/>
     </row>
     <row r="49" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="44"/>
-      <c r="B49" s="39"/>
-      <c r="C49" s="39"/>
-      <c r="D49" s="39"/>
+      <c r="A49" s="46"/>
+      <c r="B49" s="38"/>
+      <c r="C49" s="38"/>
+      <c r="D49" s="38"/>
       <c r="E49" s="13"/>
       <c r="F49" s="13"/>
-      <c r="G49" s="39"/>
-      <c r="H49" s="39"/>
+      <c r="G49" s="38"/>
+      <c r="H49" s="38"/>
     </row>
     <row r="50" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="44"/>
-      <c r="B50" s="39"/>
-      <c r="C50" s="39"/>
-      <c r="D50" s="39"/>
+      <c r="A50" s="46"/>
+      <c r="B50" s="38"/>
+      <c r="C50" s="38"/>
+      <c r="D50" s="38"/>
       <c r="E50" s="13"/>
       <c r="F50" s="13"/>
-      <c r="G50" s="39"/>
-      <c r="H50" s="39"/>
+      <c r="G50" s="38"/>
+      <c r="H50" s="38"/>
     </row>
     <row r="51" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="44"/>
-      <c r="B51" s="39"/>
-      <c r="C51" s="39"/>
-      <c r="D51" s="39"/>
+      <c r="A51" s="46"/>
+      <c r="B51" s="38"/>
+      <c r="C51" s="38"/>
+      <c r="D51" s="38"/>
       <c r="E51" s="13"/>
       <c r="F51" s="13"/>
-      <c r="G51" s="39"/>
-      <c r="H51" s="39"/>
+      <c r="G51" s="38"/>
+      <c r="H51" s="38"/>
     </row>
     <row r="52" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="44"/>
-      <c r="B52" s="39"/>
-      <c r="C52" s="39"/>
-      <c r="D52" s="39"/>
+      <c r="A52" s="46"/>
+      <c r="B52" s="38"/>
+      <c r="C52" s="38"/>
+      <c r="D52" s="38"/>
       <c r="E52" s="13"/>
       <c r="F52" s="13"/>
-      <c r="G52" s="39"/>
-      <c r="H52" s="39"/>
+      <c r="G52" s="38"/>
+      <c r="H52" s="38"/>
     </row>
     <row r="53" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="44"/>
-      <c r="B53" s="39"/>
-      <c r="C53" s="39"/>
-      <c r="D53" s="39"/>
+      <c r="A53" s="46"/>
+      <c r="B53" s="38"/>
+      <c r="C53" s="38"/>
+      <c r="D53" s="38"/>
       <c r="E53" s="13"/>
       <c r="F53" s="13"/>
-      <c r="G53" s="39"/>
-      <c r="H53" s="39"/>
+      <c r="G53" s="38"/>
+      <c r="H53" s="38"/>
     </row>
     <row r="54" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="45"/>
+      <c r="A54" s="47"/>
       <c r="B54" s="24"/>
       <c r="C54" s="24"/>
       <c r="D54" s="24"/>
@@ -7683,14 +7679,14 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="A1:H2"/>
-    <mergeCell ref="A3:H4"/>
-    <mergeCell ref="B6:B14"/>
-    <mergeCell ref="C6:C14"/>
-    <mergeCell ref="D6:D14"/>
-    <mergeCell ref="G6:G14"/>
-    <mergeCell ref="H6:H14"/>
-    <mergeCell ref="A6:A14"/>
+    <mergeCell ref="H16:H24"/>
+    <mergeCell ref="B36:B44"/>
+    <mergeCell ref="C36:C44"/>
+    <mergeCell ref="A16:A24"/>
+    <mergeCell ref="B16:B24"/>
+    <mergeCell ref="C16:C24"/>
+    <mergeCell ref="D16:D24"/>
+    <mergeCell ref="G16:G24"/>
     <mergeCell ref="H46:H54"/>
     <mergeCell ref="A26:A34"/>
     <mergeCell ref="B26:B34"/>
@@ -7707,14 +7703,14 @@
     <mergeCell ref="A36:A44"/>
     <mergeCell ref="D36:D44"/>
     <mergeCell ref="H36:H44"/>
-    <mergeCell ref="H16:H24"/>
-    <mergeCell ref="B36:B44"/>
-    <mergeCell ref="C36:C44"/>
-    <mergeCell ref="A16:A24"/>
-    <mergeCell ref="B16:B24"/>
-    <mergeCell ref="C16:C24"/>
-    <mergeCell ref="D16:D24"/>
-    <mergeCell ref="G16:G24"/>
+    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="A3:H4"/>
+    <mergeCell ref="B6:B14"/>
+    <mergeCell ref="C6:C14"/>
+    <mergeCell ref="D6:D14"/>
+    <mergeCell ref="G6:G14"/>
+    <mergeCell ref="H6:H14"/>
+    <mergeCell ref="A6:A14"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A3" r:id="rId1" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
@@ -7779,7 +7775,7 @@
       <c r="H4" s="24"/>
     </row>
     <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="37" t="s">
+      <c r="A5" s="36" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="20"/>
@@ -7791,34 +7787,34 @@
       <c r="H5" s="21"/>
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="38"/>
+      <c r="A6" s="37"/>
       <c r="B6" s="18"/>
       <c r="C6" s="18"/>
       <c r="D6" s="18"/>
       <c r="E6" s="18"/>
       <c r="F6" s="18"/>
       <c r="G6" s="18"/>
-      <c r="H6" s="39"/>
+      <c r="H6" s="38"/>
     </row>
     <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="38"/>
+      <c r="A7" s="37"/>
       <c r="B7" s="18"/>
       <c r="C7" s="18"/>
       <c r="D7" s="18"/>
       <c r="E7" s="18"/>
       <c r="F7" s="18"/>
       <c r="G7" s="18"/>
-      <c r="H7" s="39"/>
+      <c r="H7" s="38"/>
     </row>
     <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="38"/>
+      <c r="A8" s="37"/>
       <c r="B8" s="18"/>
       <c r="C8" s="18"/>
       <c r="D8" s="18"/>
       <c r="E8" s="18"/>
       <c r="F8" s="18"/>
       <c r="G8" s="18"/>
-      <c r="H8" s="39"/>
+      <c r="H8" s="38"/>
     </row>
     <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="22"/>
@@ -7853,7 +7849,7 @@
       <c r="H11" s="24"/>
     </row>
     <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="37" t="s">
+      <c r="A12" s="36" t="s">
         <v>3</v>
       </c>
       <c r="B12" s="20"/>
@@ -7865,34 +7861,34 @@
       <c r="H12" s="21"/>
     </row>
     <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="38"/>
+      <c r="A13" s="37"/>
       <c r="B13" s="18"/>
       <c r="C13" s="18"/>
       <c r="D13" s="18"/>
       <c r="E13" s="18"/>
       <c r="F13" s="18"/>
       <c r="G13" s="18"/>
-      <c r="H13" s="39"/>
+      <c r="H13" s="38"/>
     </row>
     <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="38"/>
+      <c r="A14" s="37"/>
       <c r="B14" s="18"/>
       <c r="C14" s="18"/>
       <c r="D14" s="18"/>
       <c r="E14" s="18"/>
       <c r="F14" s="18"/>
       <c r="G14" s="18"/>
-      <c r="H14" s="39"/>
+      <c r="H14" s="38"/>
     </row>
     <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="38"/>
+      <c r="A15" s="37"/>
       <c r="B15" s="18"/>
       <c r="C15" s="18"/>
       <c r="D15" s="18"/>
       <c r="E15" s="18"/>
       <c r="F15" s="18"/>
       <c r="G15" s="18"/>
-      <c r="H15" s="39"/>
+      <c r="H15" s="38"/>
     </row>
     <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="22"/>
@@ -7927,7 +7923,7 @@
       <c r="H18" s="24"/>
     </row>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="37" t="s">
+      <c r="A19" s="36" t="s">
         <v>3</v>
       </c>
       <c r="B19" s="20"/>
@@ -7939,34 +7935,34 @@
       <c r="H19" s="21"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="38"/>
+      <c r="A20" s="37"/>
       <c r="B20" s="18"/>
       <c r="C20" s="18"/>
       <c r="D20" s="18"/>
       <c r="E20" s="18"/>
       <c r="F20" s="18"/>
       <c r="G20" s="18"/>
-      <c r="H20" s="39"/>
+      <c r="H20" s="38"/>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="38"/>
+      <c r="A21" s="37"/>
       <c r="B21" s="18"/>
       <c r="C21" s="18"/>
       <c r="D21" s="18"/>
       <c r="E21" s="18"/>
       <c r="F21" s="18"/>
       <c r="G21" s="18"/>
-      <c r="H21" s="39"/>
+      <c r="H21" s="38"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="38"/>
+      <c r="A22" s="37"/>
       <c r="B22" s="18"/>
       <c r="C22" s="18"/>
       <c r="D22" s="18"/>
       <c r="E22" s="18"/>
       <c r="F22" s="18"/>
       <c r="G22" s="18"/>
-      <c r="H22" s="39"/>
+      <c r="H22" s="38"/>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="22"/>
@@ -8001,7 +7997,7 @@
       <c r="H25" s="24"/>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="37" t="s">
+      <c r="A26" s="36" t="s">
         <v>3</v>
       </c>
       <c r="B26" s="20"/>
@@ -8013,34 +8009,34 @@
       <c r="H26" s="21"/>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="38"/>
+      <c r="A27" s="37"/>
       <c r="B27" s="18"/>
       <c r="C27" s="18"/>
       <c r="D27" s="18"/>
       <c r="E27" s="18"/>
       <c r="F27" s="18"/>
       <c r="G27" s="18"/>
-      <c r="H27" s="39"/>
+      <c r="H27" s="38"/>
     </row>
     <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="38"/>
+      <c r="A28" s="37"/>
       <c r="B28" s="18"/>
       <c r="C28" s="18"/>
       <c r="D28" s="18"/>
       <c r="E28" s="18"/>
       <c r="F28" s="18"/>
       <c r="G28" s="18"/>
-      <c r="H28" s="39"/>
+      <c r="H28" s="38"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="38"/>
+      <c r="A29" s="37"/>
       <c r="B29" s="18"/>
       <c r="C29" s="18"/>
       <c r="D29" s="18"/>
       <c r="E29" s="18"/>
       <c r="F29" s="18"/>
       <c r="G29" s="18"/>
-      <c r="H29" s="39"/>
+      <c r="H29" s="38"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="22"/>
@@ -9081,7 +9077,7 @@
       <c r="I2" s="24"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="61" t="s">
+      <c r="A3" s="59" t="s">
         <v>31</v>
       </c>
       <c r="B3" s="20"/>
@@ -9108,14 +9104,14 @@
       <c r="A5" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="59" t="s">
+      <c r="B5" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="60"/>
-      <c r="D5" s="59" t="s">
+      <c r="C5" s="58"/>
+      <c r="D5" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="60"/>
+      <c r="E5" s="58"/>
       <c r="F5" s="11" t="s">
         <v>32</v>
       </c>
@@ -9130,114 +9126,114 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="53">
+      <c r="A6" s="60">
         <v>1</v>
       </c>
-      <c r="B6" s="54"/>
+      <c r="B6" s="51"/>
       <c r="C6" s="21"/>
-      <c r="D6" s="57"/>
-      <c r="E6" s="39"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="38"/>
       <c r="F6" s="5"/>
-      <c r="G6" s="51"/>
-      <c r="H6" s="51"/>
-      <c r="I6" s="62"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="49"/>
     </row>
     <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="44"/>
-      <c r="B7" s="38"/>
-      <c r="C7" s="39"/>
+      <c r="A7" s="46"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="38"/>
       <c r="D7" s="18"/>
-      <c r="E7" s="39"/>
+      <c r="E7" s="38"/>
       <c r="F7" s="13"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39"/>
-      <c r="I7" s="39"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="38"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="44"/>
+      <c r="A8" s="46"/>
       <c r="B8" s="22"/>
       <c r="C8" s="24"/>
       <c r="D8" s="18"/>
-      <c r="E8" s="39"/>
+      <c r="E8" s="38"/>
       <c r="F8" s="13"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="39"/>
-      <c r="I8" s="39"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="38"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="44"/>
-      <c r="B9" s="55" t="s">
+      <c r="A9" s="46"/>
+      <c r="B9" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="56"/>
+      <c r="C9" s="53"/>
       <c r="D9" s="18"/>
-      <c r="E9" s="39"/>
+      <c r="E9" s="38"/>
       <c r="F9" s="13"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="39"/>
-      <c r="I9" s="39"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="38"/>
     </row>
     <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="44"/>
+      <c r="A10" s="46"/>
       <c r="B10" s="24"/>
       <c r="C10" s="24"/>
       <c r="D10" s="23"/>
       <c r="E10" s="24"/>
       <c r="F10" s="13"/>
-      <c r="G10" s="39"/>
-      <c r="H10" s="39"/>
-      <c r="I10" s="39"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="38"/>
     </row>
     <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="44"/>
-      <c r="B11" s="50" t="s">
+      <c r="A11" s="46"/>
+      <c r="B11" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="51"/>
-      <c r="D11" s="58" t="s">
+      <c r="C11" s="50"/>
+      <c r="D11" s="56" t="s">
         <v>37</v>
       </c>
       <c r="E11" s="24"/>
       <c r="F11" s="13"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="39"/>
-      <c r="I11" s="39"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="38"/>
+      <c r="I11" s="38"/>
     </row>
     <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="44"/>
-      <c r="B12" s="39"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="54"/>
+      <c r="A12" s="46"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="51"/>
       <c r="E12" s="21"/>
       <c r="F12" s="13"/>
-      <c r="G12" s="39"/>
-      <c r="H12" s="39"/>
-      <c r="I12" s="39"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="38"/>
+      <c r="I12" s="38"/>
     </row>
     <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="44"/>
-      <c r="B13" s="39"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="39"/>
+      <c r="A13" s="46"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="38"/>
       <c r="F13" s="13"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="39"/>
-      <c r="I13" s="39"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="38"/>
+      <c r="I13" s="38"/>
     </row>
     <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="44"/>
-      <c r="B14" s="39"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="39"/>
+      <c r="A14" s="46"/>
+      <c r="B14" s="38"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="38"/>
       <c r="F14" s="13"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="39"/>
-      <c r="I14" s="39"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="38"/>
+      <c r="I14" s="38"/>
     </row>
     <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="45"/>
+      <c r="A15" s="47"/>
       <c r="B15" s="24"/>
       <c r="C15" s="24"/>
       <c r="D15" s="22"/>
@@ -9251,14 +9247,14 @@
       <c r="A16" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="52" t="s">
+      <c r="B16" s="55" t="s">
         <v>19</v>
       </c>
       <c r="C16" s="24"/>
-      <c r="D16" s="59" t="s">
+      <c r="D16" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="E16" s="60"/>
+      <c r="E16" s="58"/>
       <c r="F16" s="16" t="s">
         <v>32</v>
       </c>
@@ -9273,114 +9269,114 @@
       </c>
     </row>
     <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="53">
+      <c r="A17" s="60">
         <v>2</v>
       </c>
-      <c r="B17" s="54"/>
+      <c r="B17" s="51"/>
       <c r="C17" s="21"/>
-      <c r="D17" s="57"/>
-      <c r="E17" s="39"/>
+      <c r="D17" s="61"/>
+      <c r="E17" s="38"/>
       <c r="F17" s="5"/>
-      <c r="G17" s="51"/>
-      <c r="H17" s="51"/>
-      <c r="I17" s="62"/>
+      <c r="G17" s="50"/>
+      <c r="H17" s="50"/>
+      <c r="I17" s="49"/>
     </row>
     <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="44"/>
-      <c r="B18" s="38"/>
-      <c r="C18" s="39"/>
+      <c r="A18" s="46"/>
+      <c r="B18" s="37"/>
+      <c r="C18" s="38"/>
       <c r="D18" s="18"/>
-      <c r="E18" s="39"/>
+      <c r="E18" s="38"/>
       <c r="F18" s="13"/>
-      <c r="G18" s="39"/>
-      <c r="H18" s="39"/>
-      <c r="I18" s="39"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="38"/>
+      <c r="I18" s="38"/>
     </row>
     <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="44"/>
+      <c r="A19" s="46"/>
       <c r="B19" s="22"/>
       <c r="C19" s="24"/>
       <c r="D19" s="18"/>
-      <c r="E19" s="39"/>
+      <c r="E19" s="38"/>
       <c r="F19" s="13"/>
-      <c r="G19" s="39"/>
-      <c r="H19" s="39"/>
-      <c r="I19" s="39"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="38"/>
+      <c r="I19" s="38"/>
     </row>
     <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="44"/>
-      <c r="B20" s="55" t="s">
+      <c r="A20" s="46"/>
+      <c r="B20" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="56"/>
+      <c r="C20" s="53"/>
       <c r="D20" s="18"/>
-      <c r="E20" s="39"/>
+      <c r="E20" s="38"/>
       <c r="F20" s="13"/>
-      <c r="G20" s="39"/>
-      <c r="H20" s="39"/>
-      <c r="I20" s="39"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="38"/>
+      <c r="I20" s="38"/>
     </row>
     <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="44"/>
+      <c r="A21" s="46"/>
       <c r="B21" s="24"/>
       <c r="C21" s="24"/>
       <c r="D21" s="23"/>
       <c r="E21" s="24"/>
       <c r="F21" s="13"/>
-      <c r="G21" s="39"/>
-      <c r="H21" s="39"/>
-      <c r="I21" s="39"/>
+      <c r="G21" s="38"/>
+      <c r="H21" s="38"/>
+      <c r="I21" s="38"/>
     </row>
     <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="44"/>
-      <c r="B22" s="50" t="s">
+      <c r="A22" s="46"/>
+      <c r="B22" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="51"/>
-      <c r="D22" s="58" t="s">
+      <c r="C22" s="50"/>
+      <c r="D22" s="56" t="s">
         <v>37</v>
       </c>
       <c r="E22" s="24"/>
       <c r="F22" s="13"/>
-      <c r="G22" s="39"/>
-      <c r="H22" s="39"/>
-      <c r="I22" s="39"/>
+      <c r="G22" s="38"/>
+      <c r="H22" s="38"/>
+      <c r="I22" s="38"/>
     </row>
     <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="44"/>
-      <c r="B23" s="39"/>
-      <c r="C23" s="39"/>
-      <c r="D23" s="54"/>
+      <c r="A23" s="46"/>
+      <c r="B23" s="38"/>
+      <c r="C23" s="38"/>
+      <c r="D23" s="51"/>
       <c r="E23" s="21"/>
       <c r="F23" s="13"/>
-      <c r="G23" s="39"/>
-      <c r="H23" s="39"/>
-      <c r="I23" s="39"/>
+      <c r="G23" s="38"/>
+      <c r="H23" s="38"/>
+      <c r="I23" s="38"/>
     </row>
     <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="44"/>
-      <c r="B24" s="39"/>
-      <c r="C24" s="39"/>
-      <c r="D24" s="38"/>
-      <c r="E24" s="39"/>
+      <c r="A24" s="46"/>
+      <c r="B24" s="38"/>
+      <c r="C24" s="38"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="38"/>
       <c r="F24" s="13"/>
-      <c r="G24" s="39"/>
-      <c r="H24" s="39"/>
-      <c r="I24" s="39"/>
+      <c r="G24" s="38"/>
+      <c r="H24" s="38"/>
+      <c r="I24" s="38"/>
     </row>
     <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="44"/>
-      <c r="B25" s="39"/>
-      <c r="C25" s="39"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="39"/>
+      <c r="A25" s="46"/>
+      <c r="B25" s="38"/>
+      <c r="C25" s="38"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="38"/>
       <c r="F25" s="13"/>
-      <c r="G25" s="39"/>
-      <c r="H25" s="39"/>
-      <c r="I25" s="39"/>
+      <c r="G25" s="38"/>
+      <c r="H25" s="38"/>
+      <c r="I25" s="38"/>
     </row>
     <row r="26" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="45"/>
+      <c r="A26" s="47"/>
       <c r="B26" s="24"/>
       <c r="C26" s="24"/>
       <c r="D26" s="22"/>
@@ -9394,14 +9390,14 @@
       <c r="A27" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B27" s="52" t="s">
+      <c r="B27" s="55" t="s">
         <v>19</v>
       </c>
       <c r="C27" s="24"/>
-      <c r="D27" s="59" t="s">
+      <c r="D27" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="E27" s="60"/>
+      <c r="E27" s="58"/>
       <c r="F27" s="16" t="s">
         <v>32</v>
       </c>
@@ -9416,114 +9412,114 @@
       </c>
     </row>
     <row r="28" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="53">
+      <c r="A28" s="60">
         <v>3</v>
       </c>
-      <c r="B28" s="54"/>
+      <c r="B28" s="51"/>
       <c r="C28" s="21"/>
-      <c r="D28" s="57"/>
-      <c r="E28" s="39"/>
+      <c r="D28" s="61"/>
+      <c r="E28" s="38"/>
       <c r="F28" s="5"/>
-      <c r="G28" s="51"/>
-      <c r="H28" s="51"/>
-      <c r="I28" s="62"/>
+      <c r="G28" s="50"/>
+      <c r="H28" s="50"/>
+      <c r="I28" s="49"/>
     </row>
     <row r="29" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="44"/>
-      <c r="B29" s="38"/>
-      <c r="C29" s="39"/>
+      <c r="A29" s="46"/>
+      <c r="B29" s="37"/>
+      <c r="C29" s="38"/>
       <c r="D29" s="18"/>
-      <c r="E29" s="39"/>
+      <c r="E29" s="38"/>
       <c r="F29" s="13"/>
-      <c r="G29" s="39"/>
-      <c r="H29" s="39"/>
-      <c r="I29" s="39"/>
+      <c r="G29" s="38"/>
+      <c r="H29" s="38"/>
+      <c r="I29" s="38"/>
     </row>
     <row r="30" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="44"/>
+      <c r="A30" s="46"/>
       <c r="B30" s="22"/>
       <c r="C30" s="24"/>
       <c r="D30" s="18"/>
-      <c r="E30" s="39"/>
+      <c r="E30" s="38"/>
       <c r="F30" s="13"/>
-      <c r="G30" s="39"/>
-      <c r="H30" s="39"/>
-      <c r="I30" s="39"/>
+      <c r="G30" s="38"/>
+      <c r="H30" s="38"/>
+      <c r="I30" s="38"/>
     </row>
     <row r="31" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="44"/>
-      <c r="B31" s="55" t="s">
+      <c r="A31" s="46"/>
+      <c r="B31" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="C31" s="56"/>
+      <c r="C31" s="53"/>
       <c r="D31" s="18"/>
-      <c r="E31" s="39"/>
+      <c r="E31" s="38"/>
       <c r="F31" s="13"/>
-      <c r="G31" s="39"/>
-      <c r="H31" s="39"/>
-      <c r="I31" s="39"/>
+      <c r="G31" s="38"/>
+      <c r="H31" s="38"/>
+      <c r="I31" s="38"/>
     </row>
     <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="44"/>
+      <c r="A32" s="46"/>
       <c r="B32" s="24"/>
       <c r="C32" s="24"/>
       <c r="D32" s="23"/>
       <c r="E32" s="24"/>
       <c r="F32" s="13"/>
-      <c r="G32" s="39"/>
-      <c r="H32" s="39"/>
-      <c r="I32" s="39"/>
+      <c r="G32" s="38"/>
+      <c r="H32" s="38"/>
+      <c r="I32" s="38"/>
     </row>
     <row r="33" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="44"/>
-      <c r="B33" s="50" t="s">
+      <c r="A33" s="46"/>
+      <c r="B33" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="C33" s="51"/>
-      <c r="D33" s="58" t="s">
+      <c r="C33" s="50"/>
+      <c r="D33" s="56" t="s">
         <v>37</v>
       </c>
       <c r="E33" s="24"/>
       <c r="F33" s="13"/>
-      <c r="G33" s="39"/>
-      <c r="H33" s="39"/>
-      <c r="I33" s="39"/>
+      <c r="G33" s="38"/>
+      <c r="H33" s="38"/>
+      <c r="I33" s="38"/>
     </row>
     <row r="34" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="44"/>
-      <c r="B34" s="39"/>
-      <c r="C34" s="39"/>
-      <c r="D34" s="54"/>
+      <c r="A34" s="46"/>
+      <c r="B34" s="38"/>
+      <c r="C34" s="38"/>
+      <c r="D34" s="51"/>
       <c r="E34" s="21"/>
       <c r="F34" s="13"/>
-      <c r="G34" s="39"/>
-      <c r="H34" s="39"/>
-      <c r="I34" s="39"/>
+      <c r="G34" s="38"/>
+      <c r="H34" s="38"/>
+      <c r="I34" s="38"/>
     </row>
     <row r="35" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="44"/>
-      <c r="B35" s="39"/>
-      <c r="C35" s="39"/>
-      <c r="D35" s="38"/>
-      <c r="E35" s="39"/>
+      <c r="A35" s="46"/>
+      <c r="B35" s="38"/>
+      <c r="C35" s="38"/>
+      <c r="D35" s="37"/>
+      <c r="E35" s="38"/>
       <c r="F35" s="13"/>
-      <c r="G35" s="39"/>
-      <c r="H35" s="39"/>
-      <c r="I35" s="39"/>
+      <c r="G35" s="38"/>
+      <c r="H35" s="38"/>
+      <c r="I35" s="38"/>
     </row>
     <row r="36" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="44"/>
-      <c r="B36" s="39"/>
-      <c r="C36" s="39"/>
-      <c r="D36" s="38"/>
-      <c r="E36" s="39"/>
+      <c r="A36" s="46"/>
+      <c r="B36" s="38"/>
+      <c r="C36" s="38"/>
+      <c r="D36" s="37"/>
+      <c r="E36" s="38"/>
       <c r="F36" s="13"/>
-      <c r="G36" s="39"/>
-      <c r="H36" s="39"/>
-      <c r="I36" s="39"/>
+      <c r="G36" s="38"/>
+      <c r="H36" s="38"/>
+      <c r="I36" s="38"/>
     </row>
     <row r="37" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="45"/>
+      <c r="A37" s="47"/>
       <c r="B37" s="24"/>
       <c r="C37" s="24"/>
       <c r="D37" s="22"/>
@@ -9559,7 +9555,7 @@
       <c r="H40" s="24"/>
     </row>
     <row r="41" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="37" t="s">
+      <c r="A41" s="36" t="s">
         <v>3</v>
       </c>
       <c r="B41" s="20"/>
@@ -9571,134 +9567,134 @@
       <c r="H41" s="21"/>
     </row>
     <row r="42" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="38"/>
+      <c r="A42" s="37"/>
       <c r="B42" s="18"/>
       <c r="C42" s="18"/>
       <c r="D42" s="18"/>
       <c r="E42" s="18"/>
       <c r="F42" s="18"/>
       <c r="G42" s="18"/>
-      <c r="H42" s="39"/>
+      <c r="H42" s="38"/>
     </row>
     <row r="43" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="38"/>
+      <c r="A43" s="37"/>
       <c r="B43" s="18"/>
       <c r="C43" s="18"/>
       <c r="D43" s="18"/>
       <c r="E43" s="18"/>
       <c r="F43" s="18"/>
       <c r="G43" s="18"/>
-      <c r="H43" s="39"/>
+      <c r="H43" s="38"/>
     </row>
     <row r="44" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="38"/>
+      <c r="A44" s="37"/>
       <c r="B44" s="18"/>
       <c r="C44" s="18"/>
       <c r="D44" s="18"/>
       <c r="E44" s="18"/>
       <c r="F44" s="18"/>
       <c r="G44" s="18"/>
-      <c r="H44" s="39"/>
+      <c r="H44" s="38"/>
     </row>
     <row r="45" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="38"/>
+      <c r="A45" s="37"/>
       <c r="B45" s="18"/>
       <c r="C45" s="18"/>
       <c r="D45" s="18"/>
       <c r="E45" s="18"/>
       <c r="F45" s="18"/>
       <c r="G45" s="18"/>
-      <c r="H45" s="39"/>
+      <c r="H45" s="38"/>
     </row>
     <row r="46" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="38"/>
+      <c r="A46" s="37"/>
       <c r="B46" s="18"/>
       <c r="C46" s="18"/>
       <c r="D46" s="18"/>
       <c r="E46" s="18"/>
       <c r="F46" s="18"/>
       <c r="G46" s="18"/>
-      <c r="H46" s="39"/>
+      <c r="H46" s="38"/>
     </row>
     <row r="47" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="38"/>
+      <c r="A47" s="37"/>
       <c r="B47" s="18"/>
       <c r="C47" s="18"/>
       <c r="D47" s="18"/>
       <c r="E47" s="18"/>
       <c r="F47" s="18"/>
       <c r="G47" s="18"/>
-      <c r="H47" s="39"/>
+      <c r="H47" s="38"/>
     </row>
     <row r="48" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="38"/>
+      <c r="A48" s="37"/>
       <c r="B48" s="18"/>
       <c r="C48" s="18"/>
       <c r="D48" s="18"/>
       <c r="E48" s="18"/>
       <c r="F48" s="18"/>
       <c r="G48" s="18"/>
-      <c r="H48" s="39"/>
+      <c r="H48" s="38"/>
     </row>
     <row r="49" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="38"/>
+      <c r="A49" s="37"/>
       <c r="B49" s="18"/>
       <c r="C49" s="18"/>
       <c r="D49" s="18"/>
       <c r="E49" s="18"/>
       <c r="F49" s="18"/>
       <c r="G49" s="18"/>
-      <c r="H49" s="39"/>
+      <c r="H49" s="38"/>
     </row>
     <row r="50" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="38"/>
+      <c r="A50" s="37"/>
       <c r="B50" s="18"/>
       <c r="C50" s="18"/>
       <c r="D50" s="18"/>
       <c r="E50" s="18"/>
       <c r="F50" s="18"/>
       <c r="G50" s="18"/>
-      <c r="H50" s="39"/>
+      <c r="H50" s="38"/>
     </row>
     <row r="51" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="38"/>
+      <c r="A51" s="37"/>
       <c r="B51" s="18"/>
       <c r="C51" s="18"/>
       <c r="D51" s="18"/>
       <c r="E51" s="18"/>
       <c r="F51" s="18"/>
       <c r="G51" s="18"/>
-      <c r="H51" s="39"/>
+      <c r="H51" s="38"/>
     </row>
     <row r="52" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="38"/>
+      <c r="A52" s="37"/>
       <c r="B52" s="18"/>
       <c r="C52" s="18"/>
       <c r="D52" s="18"/>
       <c r="E52" s="18"/>
       <c r="F52" s="18"/>
       <c r="G52" s="18"/>
-      <c r="H52" s="39"/>
+      <c r="H52" s="38"/>
     </row>
     <row r="53" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="38"/>
+      <c r="A53" s="37"/>
       <c r="B53" s="18"/>
       <c r="C53" s="18"/>
       <c r="D53" s="18"/>
       <c r="E53" s="18"/>
       <c r="F53" s="18"/>
       <c r="G53" s="18"/>
-      <c r="H53" s="39"/>
+      <c r="H53" s="38"/>
     </row>
     <row r="54" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="38"/>
+      <c r="A54" s="37"/>
       <c r="B54" s="18"/>
       <c r="C54" s="18"/>
       <c r="D54" s="18"/>
       <c r="E54" s="18"/>
       <c r="F54" s="18"/>
       <c r="G54" s="18"/>
-      <c r="H54" s="39"/>
+      <c r="H54" s="38"/>
     </row>
     <row r="55" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="22"/>
@@ -11015,6 +11011,36 @@
     <row r="1002" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="46">
+    <mergeCell ref="A39:H40"/>
+    <mergeCell ref="A41:H55"/>
+    <mergeCell ref="B11:B15"/>
+    <mergeCell ref="C11:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="A17:A26"/>
+    <mergeCell ref="B17:C19"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D28:E32"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D34:E37"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E21"/>
+    <mergeCell ref="A28:A37"/>
+    <mergeCell ref="B28:C30"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="B33:B37"/>
+    <mergeCell ref="C33:C37"/>
+    <mergeCell ref="H17:H26"/>
+    <mergeCell ref="A1:I2"/>
+    <mergeCell ref="A3:I4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="A6:A15"/>
+    <mergeCell ref="D6:E10"/>
+    <mergeCell ref="I6:I15"/>
     <mergeCell ref="I17:I26"/>
     <mergeCell ref="G28:G37"/>
     <mergeCell ref="H28:H37"/>
@@ -11031,36 +11057,6 @@
     <mergeCell ref="G6:G15"/>
     <mergeCell ref="H6:H15"/>
     <mergeCell ref="G17:G26"/>
-    <mergeCell ref="H17:H26"/>
-    <mergeCell ref="A1:I2"/>
-    <mergeCell ref="A3:I4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="A6:A15"/>
-    <mergeCell ref="D6:E10"/>
-    <mergeCell ref="I6:I15"/>
-    <mergeCell ref="A28:A37"/>
-    <mergeCell ref="B28:C30"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="B33:B37"/>
-    <mergeCell ref="C33:C37"/>
-    <mergeCell ref="A39:H40"/>
-    <mergeCell ref="A41:H55"/>
-    <mergeCell ref="B11:B15"/>
-    <mergeCell ref="C11:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="A17:A26"/>
-    <mergeCell ref="B17:C19"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D28:E32"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D34:E37"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/QA_ДЗ Маляров.xlsx
+++ b/QA_ДЗ Маляров.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\QA TESTER\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A03509B1-A8BF-4ED2-99DF-8803A5AD19A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7B6D0C0-0A0D-4E9B-995C-747836233A3A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1289,51 +1289,56 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1345,12 +1350,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1758,34 +1758,34 @@
       <c r="H3" s="21"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="37"/>
+      <c r="A4" s="47"/>
       <c r="B4" s="18"/>
       <c r="C4" s="18"/>
       <c r="D4" s="18"/>
       <c r="E4" s="18"/>
       <c r="F4" s="18"/>
       <c r="G4" s="18"/>
-      <c r="H4" s="38"/>
+      <c r="H4" s="39"/>
     </row>
     <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="37"/>
+      <c r="A5" s="47"/>
       <c r="B5" s="18"/>
       <c r="C5" s="18"/>
       <c r="D5" s="18"/>
       <c r="E5" s="18"/>
       <c r="F5" s="18"/>
       <c r="G5" s="18"/>
-      <c r="H5" s="38"/>
+      <c r="H5" s="39"/>
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="37"/>
+      <c r="A6" s="47"/>
       <c r="B6" s="18"/>
       <c r="C6" s="18"/>
       <c r="D6" s="18"/>
       <c r="E6" s="18"/>
       <c r="F6" s="18"/>
       <c r="G6" s="18"/>
-      <c r="H6" s="38"/>
+      <c r="H6" s="39"/>
     </row>
     <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="22"/>
@@ -1807,37 +1807,37 @@
       <c r="E8" s="18"/>
       <c r="F8" s="18"/>
       <c r="G8" s="18"/>
-      <c r="H8" s="38"/>
+      <c r="H8" s="39"/>
     </row>
     <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="37"/>
+      <c r="A9" s="47"/>
       <c r="B9" s="18"/>
       <c r="C9" s="18"/>
       <c r="D9" s="18"/>
       <c r="E9" s="18"/>
       <c r="F9" s="18"/>
       <c r="G9" s="18"/>
-      <c r="H9" s="38"/>
+      <c r="H9" s="39"/>
     </row>
     <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="37"/>
+      <c r="A10" s="47"/>
       <c r="B10" s="18"/>
       <c r="C10" s="18"/>
       <c r="D10" s="18"/>
       <c r="E10" s="18"/>
       <c r="F10" s="18"/>
       <c r="G10" s="18"/>
-      <c r="H10" s="38"/>
+      <c r="H10" s="39"/>
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="37"/>
+      <c r="A11" s="47"/>
       <c r="B11" s="18"/>
       <c r="C11" s="18"/>
       <c r="D11" s="18"/>
       <c r="E11" s="18"/>
       <c r="F11" s="18"/>
       <c r="G11" s="18"/>
-      <c r="H11" s="38"/>
+      <c r="H11" s="39"/>
     </row>
     <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="22"/>
@@ -1859,37 +1859,37 @@
       <c r="E13" s="18"/>
       <c r="F13" s="18"/>
       <c r="G13" s="18"/>
-      <c r="H13" s="38"/>
+      <c r="H13" s="39"/>
     </row>
     <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="37"/>
+      <c r="A14" s="47"/>
       <c r="B14" s="18"/>
       <c r="C14" s="18"/>
       <c r="D14" s="18"/>
       <c r="E14" s="18"/>
       <c r="F14" s="18"/>
       <c r="G14" s="18"/>
-      <c r="H14" s="38"/>
+      <c r="H14" s="39"/>
     </row>
     <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="37"/>
+      <c r="A15" s="47"/>
       <c r="B15" s="18"/>
       <c r="C15" s="18"/>
       <c r="D15" s="18"/>
       <c r="E15" s="18"/>
       <c r="F15" s="18"/>
       <c r="G15" s="18"/>
-      <c r="H15" s="38"/>
+      <c r="H15" s="39"/>
     </row>
     <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="37"/>
+      <c r="A16" s="47"/>
       <c r="B16" s="18"/>
       <c r="C16" s="18"/>
       <c r="D16" s="18"/>
       <c r="E16" s="18"/>
       <c r="F16" s="18"/>
       <c r="G16" s="18"/>
-      <c r="H16" s="38"/>
+      <c r="H16" s="39"/>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="22"/>
@@ -1911,37 +1911,37 @@
       <c r="E18" s="18"/>
       <c r="F18" s="18"/>
       <c r="G18" s="18"/>
-      <c r="H18" s="38"/>
+      <c r="H18" s="39"/>
     </row>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="37"/>
+      <c r="A19" s="47"/>
       <c r="B19" s="18"/>
       <c r="C19" s="18"/>
       <c r="D19" s="18"/>
       <c r="E19" s="18"/>
       <c r="F19" s="18"/>
       <c r="G19" s="18"/>
-      <c r="H19" s="38"/>
+      <c r="H19" s="39"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="37"/>
+      <c r="A20" s="47"/>
       <c r="B20" s="18"/>
       <c r="C20" s="18"/>
       <c r="D20" s="18"/>
       <c r="E20" s="18"/>
       <c r="F20" s="18"/>
       <c r="G20" s="18"/>
-      <c r="H20" s="38"/>
+      <c r="H20" s="39"/>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="37"/>
+      <c r="A21" s="47"/>
       <c r="B21" s="18"/>
       <c r="C21" s="18"/>
       <c r="D21" s="18"/>
       <c r="E21" s="18"/>
       <c r="F21" s="18"/>
       <c r="G21" s="18"/>
-      <c r="H21" s="38"/>
+      <c r="H21" s="39"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="22"/>
@@ -1963,37 +1963,37 @@
       <c r="E23" s="18"/>
       <c r="F23" s="18"/>
       <c r="G23" s="18"/>
-      <c r="H23" s="38"/>
+      <c r="H23" s="39"/>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="37"/>
+      <c r="A24" s="47"/>
       <c r="B24" s="18"/>
       <c r="C24" s="18"/>
       <c r="D24" s="18"/>
       <c r="E24" s="18"/>
       <c r="F24" s="18"/>
       <c r="G24" s="18"/>
-      <c r="H24" s="38"/>
+      <c r="H24" s="39"/>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="37"/>
+      <c r="A25" s="47"/>
       <c r="B25" s="18"/>
       <c r="C25" s="18"/>
       <c r="D25" s="18"/>
       <c r="E25" s="18"/>
       <c r="F25" s="18"/>
       <c r="G25" s="18"/>
-      <c r="H25" s="38"/>
+      <c r="H25" s="39"/>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="37"/>
+      <c r="A26" s="47"/>
       <c r="B26" s="18"/>
       <c r="C26" s="18"/>
       <c r="D26" s="18"/>
       <c r="E26" s="18"/>
       <c r="F26" s="18"/>
       <c r="G26" s="18"/>
-      <c r="H26" s="38"/>
+      <c r="H26" s="39"/>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="22"/>
@@ -2020,34 +2020,34 @@
       <c r="H30" s="21"/>
     </row>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="37"/>
+      <c r="A31" s="47"/>
       <c r="B31" s="18"/>
       <c r="C31" s="18"/>
       <c r="D31" s="18"/>
       <c r="E31" s="18"/>
       <c r="F31" s="18"/>
       <c r="G31" s="18"/>
-      <c r="H31" s="38"/>
+      <c r="H31" s="39"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="37"/>
+      <c r="A32" s="47"/>
       <c r="B32" s="18"/>
       <c r="C32" s="18"/>
       <c r="D32" s="18"/>
       <c r="E32" s="18"/>
       <c r="F32" s="18"/>
       <c r="G32" s="18"/>
-      <c r="H32" s="38"/>
+      <c r="H32" s="39"/>
     </row>
     <row r="33" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="37"/>
+      <c r="A33" s="47"/>
       <c r="B33" s="18"/>
       <c r="C33" s="18"/>
       <c r="D33" s="18"/>
       <c r="E33" s="18"/>
       <c r="F33" s="18"/>
       <c r="G33" s="18"/>
-      <c r="H33" s="38"/>
+      <c r="H33" s="39"/>
     </row>
     <row r="34" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="22"/>
@@ -2069,47 +2069,47 @@
       <c r="E35" s="18"/>
       <c r="F35" s="18"/>
       <c r="G35" s="18"/>
-      <c r="H35" s="38"/>
+      <c r="H35" s="39"/>
     </row>
     <row r="36" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="37"/>
+      <c r="A36" s="47"/>
       <c r="B36" s="18"/>
       <c r="C36" s="18"/>
       <c r="D36" s="18"/>
       <c r="E36" s="18"/>
       <c r="F36" s="18"/>
       <c r="G36" s="18"/>
-      <c r="H36" s="38"/>
+      <c r="H36" s="39"/>
     </row>
     <row r="37" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="37"/>
+      <c r="A37" s="47"/>
       <c r="B37" s="18"/>
       <c r="C37" s="18"/>
       <c r="D37" s="18"/>
       <c r="E37" s="18"/>
       <c r="F37" s="18"/>
       <c r="G37" s="18"/>
-      <c r="H37" s="38"/>
+      <c r="H37" s="39"/>
     </row>
     <row r="38" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="37"/>
+      <c r="A38" s="47"/>
       <c r="B38" s="18"/>
       <c r="C38" s="18"/>
       <c r="D38" s="18"/>
       <c r="E38" s="18"/>
       <c r="F38" s="18"/>
       <c r="G38" s="18"/>
-      <c r="H38" s="38"/>
+      <c r="H38" s="39"/>
     </row>
     <row r="39" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="37"/>
+      <c r="A39" s="47"/>
       <c r="B39" s="18"/>
       <c r="C39" s="18"/>
       <c r="D39" s="18"/>
       <c r="E39" s="18"/>
       <c r="F39" s="18"/>
       <c r="G39" s="18"/>
-      <c r="H39" s="38"/>
+      <c r="H39" s="39"/>
     </row>
     <row r="40" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="22"/>
@@ -3134,34 +3134,34 @@
       <c r="H3" s="21"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="37"/>
+      <c r="A4" s="47"/>
       <c r="B4" s="18"/>
       <c r="C4" s="18"/>
       <c r="D4" s="18"/>
       <c r="E4" s="18"/>
       <c r="F4" s="18"/>
       <c r="G4" s="18"/>
-      <c r="H4" s="38"/>
+      <c r="H4" s="39"/>
     </row>
     <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="37"/>
+      <c r="A5" s="47"/>
       <c r="B5" s="18"/>
       <c r="C5" s="18"/>
       <c r="D5" s="18"/>
       <c r="E5" s="18"/>
       <c r="F5" s="18"/>
       <c r="G5" s="18"/>
-      <c r="H5" s="38"/>
+      <c r="H5" s="39"/>
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="37"/>
+      <c r="A6" s="47"/>
       <c r="B6" s="18"/>
       <c r="C6" s="18"/>
       <c r="D6" s="18"/>
       <c r="E6" s="18"/>
       <c r="F6" s="18"/>
       <c r="G6" s="18"/>
-      <c r="H6" s="38"/>
+      <c r="H6" s="39"/>
     </row>
     <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="22"/>
@@ -3183,47 +3183,47 @@
       <c r="E8" s="18"/>
       <c r="F8" s="18"/>
       <c r="G8" s="18"/>
-      <c r="H8" s="38"/>
+      <c r="H8" s="39"/>
     </row>
     <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="37"/>
+      <c r="A9" s="47"/>
       <c r="B9" s="18"/>
       <c r="C9" s="18"/>
       <c r="D9" s="18"/>
       <c r="E9" s="18"/>
       <c r="F9" s="18"/>
       <c r="G9" s="18"/>
-      <c r="H9" s="38"/>
+      <c r="H9" s="39"/>
     </row>
     <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="37"/>
+      <c r="A10" s="47"/>
       <c r="B10" s="18"/>
       <c r="C10" s="18"/>
       <c r="D10" s="18"/>
       <c r="E10" s="18"/>
       <c r="F10" s="18"/>
       <c r="G10" s="18"/>
-      <c r="H10" s="38"/>
+      <c r="H10" s="39"/>
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="37"/>
+      <c r="A11" s="47"/>
       <c r="B11" s="18"/>
       <c r="C11" s="18"/>
       <c r="D11" s="18"/>
       <c r="E11" s="18"/>
       <c r="F11" s="18"/>
       <c r="G11" s="18"/>
-      <c r="H11" s="38"/>
+      <c r="H11" s="39"/>
     </row>
     <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="37"/>
+      <c r="A12" s="47"/>
       <c r="B12" s="18"/>
       <c r="C12" s="18"/>
       <c r="D12" s="18"/>
       <c r="E12" s="18"/>
       <c r="F12" s="18"/>
       <c r="G12" s="18"/>
-      <c r="H12" s="38"/>
+      <c r="H12" s="39"/>
     </row>
     <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="22"/>
@@ -3249,34 +3249,34 @@
       <c r="H16" s="21"/>
     </row>
     <row r="17" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="37"/>
+      <c r="A17" s="47"/>
       <c r="B17" s="18"/>
       <c r="C17" s="18"/>
       <c r="D17" s="18"/>
       <c r="E17" s="18"/>
       <c r="F17" s="18"/>
       <c r="G17" s="18"/>
-      <c r="H17" s="38"/>
+      <c r="H17" s="39"/>
     </row>
     <row r="18" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="37"/>
+      <c r="A18" s="47"/>
       <c r="B18" s="18"/>
       <c r="C18" s="18"/>
       <c r="D18" s="18"/>
       <c r="E18" s="18"/>
       <c r="F18" s="18"/>
       <c r="G18" s="18"/>
-      <c r="H18" s="38"/>
+      <c r="H18" s="39"/>
     </row>
     <row r="19" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="37"/>
+      <c r="A19" s="47"/>
       <c r="B19" s="18"/>
       <c r="C19" s="18"/>
       <c r="D19" s="18"/>
       <c r="E19" s="18"/>
       <c r="F19" s="18"/>
       <c r="G19" s="18"/>
-      <c r="H19" s="38"/>
+      <c r="H19" s="39"/>
     </row>
     <row r="20" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A20" s="22"/>
@@ -3298,47 +3298,47 @@
       <c r="E21" s="18"/>
       <c r="F21" s="18"/>
       <c r="G21" s="18"/>
-      <c r="H21" s="38"/>
+      <c r="H21" s="39"/>
     </row>
     <row r="22" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="37"/>
+      <c r="A22" s="47"/>
       <c r="B22" s="18"/>
       <c r="C22" s="18"/>
       <c r="D22" s="18"/>
       <c r="E22" s="18"/>
       <c r="F22" s="18"/>
       <c r="G22" s="18"/>
-      <c r="H22" s="38"/>
+      <c r="H22" s="39"/>
     </row>
     <row r="23" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="37"/>
+      <c r="A23" s="47"/>
       <c r="B23" s="18"/>
       <c r="C23" s="18"/>
       <c r="D23" s="18"/>
       <c r="E23" s="18"/>
       <c r="F23" s="18"/>
       <c r="G23" s="18"/>
-      <c r="H23" s="38"/>
+      <c r="H23" s="39"/>
     </row>
     <row r="24" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="37"/>
+      <c r="A24" s="47"/>
       <c r="B24" s="18"/>
       <c r="C24" s="18"/>
       <c r="D24" s="18"/>
       <c r="E24" s="18"/>
       <c r="F24" s="18"/>
       <c r="G24" s="18"/>
-      <c r="H24" s="38"/>
+      <c r="H24" s="39"/>
     </row>
     <row r="25" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="37"/>
+      <c r="A25" s="47"/>
       <c r="B25" s="18"/>
       <c r="C25" s="18"/>
       <c r="D25" s="18"/>
       <c r="E25" s="18"/>
       <c r="F25" s="18"/>
       <c r="G25" s="18"/>
-      <c r="H25" s="38"/>
+      <c r="H25" s="39"/>
     </row>
     <row r="26" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A26" s="22"/>
@@ -5030,7 +5030,7 @@
       <c r="H2" s="24"/>
     </row>
     <row r="3" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="36" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="20"/>
@@ -5052,7 +5052,7 @@
       <c r="H4" s="24"/>
     </row>
     <row r="5" spans="1:8" ht="13" x14ac:dyDescent="0.25">
-      <c r="A5" s="40" t="s">
+      <c r="A5" s="37" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="18"/>
@@ -5061,7 +5061,7 @@
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:8" ht="13" x14ac:dyDescent="0.25">
-      <c r="A6" s="40" t="s">
+      <c r="A6" s="37" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="18"/>
@@ -5197,6 +5197,11 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="A3:H4"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="B7:C7"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B17:C17"/>
@@ -5209,11 +5214,6 @@
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B16:C16"/>
-    <mergeCell ref="A1:H2"/>
-    <mergeCell ref="A3:H4"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="B7:C7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5285,7 +5285,7 @@
       <c r="H4" s="24"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="36" t="s">
+      <c r="A5" s="46" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="20"/>
@@ -5297,134 +5297,134 @@
       <c r="H5" s="21"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="37"/>
+      <c r="A6" s="47"/>
       <c r="B6" s="18"/>
       <c r="C6" s="18"/>
       <c r="D6" s="18"/>
       <c r="E6" s="18"/>
       <c r="F6" s="18"/>
       <c r="G6" s="18"/>
-      <c r="H6" s="38"/>
+      <c r="H6" s="39"/>
     </row>
     <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="37"/>
+      <c r="A7" s="47"/>
       <c r="B7" s="18"/>
       <c r="C7" s="18"/>
       <c r="D7" s="18"/>
       <c r="E7" s="18"/>
       <c r="F7" s="18"/>
       <c r="G7" s="18"/>
-      <c r="H7" s="38"/>
+      <c r="H7" s="39"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="37"/>
+      <c r="A8" s="47"/>
       <c r="B8" s="18"/>
       <c r="C8" s="18"/>
       <c r="D8" s="18"/>
       <c r="E8" s="18"/>
       <c r="F8" s="18"/>
       <c r="G8" s="18"/>
-      <c r="H8" s="38"/>
+      <c r="H8" s="39"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="37"/>
+      <c r="A9" s="47"/>
       <c r="B9" s="18"/>
       <c r="C9" s="18"/>
       <c r="D9" s="18"/>
       <c r="E9" s="18"/>
       <c r="F9" s="18"/>
       <c r="G9" s="18"/>
-      <c r="H9" s="38"/>
+      <c r="H9" s="39"/>
     </row>
     <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="37"/>
+      <c r="A10" s="47"/>
       <c r="B10" s="18"/>
       <c r="C10" s="18"/>
       <c r="D10" s="18"/>
       <c r="E10" s="18"/>
       <c r="F10" s="18"/>
       <c r="G10" s="18"/>
-      <c r="H10" s="38"/>
+      <c r="H10" s="39"/>
     </row>
     <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="37"/>
+      <c r="A11" s="47"/>
       <c r="B11" s="18"/>
       <c r="C11" s="18"/>
       <c r="D11" s="18"/>
       <c r="E11" s="18"/>
       <c r="F11" s="18"/>
       <c r="G11" s="18"/>
-      <c r="H11" s="38"/>
+      <c r="H11" s="39"/>
     </row>
     <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="37"/>
+      <c r="A12" s="47"/>
       <c r="B12" s="18"/>
       <c r="C12" s="18"/>
       <c r="D12" s="18"/>
       <c r="E12" s="18"/>
       <c r="F12" s="18"/>
       <c r="G12" s="18"/>
-      <c r="H12" s="38"/>
+      <c r="H12" s="39"/>
     </row>
     <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="37"/>
+      <c r="A13" s="47"/>
       <c r="B13" s="18"/>
       <c r="C13" s="18"/>
       <c r="D13" s="18"/>
       <c r="E13" s="18"/>
       <c r="F13" s="18"/>
       <c r="G13" s="18"/>
-      <c r="H13" s="38"/>
+      <c r="H13" s="39"/>
     </row>
     <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="37"/>
+      <c r="A14" s="47"/>
       <c r="B14" s="18"/>
       <c r="C14" s="18"/>
       <c r="D14" s="18"/>
       <c r="E14" s="18"/>
       <c r="F14" s="18"/>
       <c r="G14" s="18"/>
-      <c r="H14" s="38"/>
+      <c r="H14" s="39"/>
     </row>
     <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="37"/>
+      <c r="A15" s="47"/>
       <c r="B15" s="18"/>
       <c r="C15" s="18"/>
       <c r="D15" s="18"/>
       <c r="E15" s="18"/>
       <c r="F15" s="18"/>
       <c r="G15" s="18"/>
-      <c r="H15" s="38"/>
+      <c r="H15" s="39"/>
     </row>
     <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="37"/>
+      <c r="A16" s="47"/>
       <c r="B16" s="18"/>
       <c r="C16" s="18"/>
       <c r="D16" s="18"/>
       <c r="E16" s="18"/>
       <c r="F16" s="18"/>
       <c r="G16" s="18"/>
-      <c r="H16" s="38"/>
+      <c r="H16" s="39"/>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="37"/>
+      <c r="A17" s="47"/>
       <c r="B17" s="18"/>
       <c r="C17" s="18"/>
       <c r="D17" s="18"/>
       <c r="E17" s="18"/>
       <c r="F17" s="18"/>
       <c r="G17" s="18"/>
-      <c r="H17" s="38"/>
+      <c r="H17" s="39"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="37"/>
+      <c r="A18" s="47"/>
       <c r="B18" s="18"/>
       <c r="C18" s="18"/>
       <c r="D18" s="18"/>
       <c r="E18" s="18"/>
       <c r="F18" s="18"/>
       <c r="G18" s="18"/>
-      <c r="H18" s="38"/>
+      <c r="H18" s="39"/>
     </row>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="22"/>
@@ -5447,7 +5447,7 @@
       <c r="H20" s="8"/>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="43" t="s">
+      <c r="A21" s="45" t="s">
         <v>16</v>
       </c>
       <c r="B21" s="20"/>
@@ -5495,89 +5495,89 @@
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="45">
+      <c r="A24" s="40">
         <v>1</v>
       </c>
-      <c r="B24" s="44"/>
-      <c r="C24" s="41"/>
-      <c r="D24" s="41"/>
+      <c r="B24" s="43"/>
+      <c r="C24" s="44"/>
+      <c r="D24" s="44"/>
       <c r="E24" s="12"/>
       <c r="F24" s="12"/>
-      <c r="G24" s="42"/>
-      <c r="H24" s="42"/>
+      <c r="G24" s="38"/>
+      <c r="H24" s="38"/>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="46"/>
-      <c r="B25" s="38"/>
-      <c r="C25" s="38"/>
-      <c r="D25" s="38"/>
+      <c r="A25" s="41"/>
+      <c r="B25" s="39"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="39"/>
       <c r="E25" s="13"/>
       <c r="F25" s="13"/>
-      <c r="G25" s="38"/>
-      <c r="H25" s="38"/>
+      <c r="G25" s="39"/>
+      <c r="H25" s="39"/>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="46"/>
-      <c r="B26" s="38"/>
-      <c r="C26" s="38"/>
-      <c r="D26" s="38"/>
+      <c r="A26" s="41"/>
+      <c r="B26" s="39"/>
+      <c r="C26" s="39"/>
+      <c r="D26" s="39"/>
       <c r="E26" s="13"/>
       <c r="F26" s="13"/>
-      <c r="G26" s="38"/>
-      <c r="H26" s="38"/>
+      <c r="G26" s="39"/>
+      <c r="H26" s="39"/>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="46"/>
-      <c r="B27" s="38"/>
-      <c r="C27" s="38"/>
-      <c r="D27" s="38"/>
+      <c r="A27" s="41"/>
+      <c r="B27" s="39"/>
+      <c r="C27" s="39"/>
+      <c r="D27" s="39"/>
       <c r="E27" s="13"/>
       <c r="F27" s="13"/>
-      <c r="G27" s="38"/>
-      <c r="H27" s="38"/>
+      <c r="G27" s="39"/>
+      <c r="H27" s="39"/>
     </row>
     <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="46"/>
-      <c r="B28" s="38"/>
-      <c r="C28" s="38"/>
-      <c r="D28" s="38"/>
+      <c r="A28" s="41"/>
+      <c r="B28" s="39"/>
+      <c r="C28" s="39"/>
+      <c r="D28" s="39"/>
       <c r="E28" s="13"/>
       <c r="F28" s="13"/>
-      <c r="G28" s="38"/>
-      <c r="H28" s="38"/>
+      <c r="G28" s="39"/>
+      <c r="H28" s="39"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="46"/>
-      <c r="B29" s="38"/>
-      <c r="C29" s="38"/>
-      <c r="D29" s="38"/>
+      <c r="A29" s="41"/>
+      <c r="B29" s="39"/>
+      <c r="C29" s="39"/>
+      <c r="D29" s="39"/>
       <c r="E29" s="13"/>
       <c r="F29" s="13"/>
-      <c r="G29" s="38"/>
-      <c r="H29" s="38"/>
+      <c r="G29" s="39"/>
+      <c r="H29" s="39"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="46"/>
-      <c r="B30" s="38"/>
-      <c r="C30" s="38"/>
-      <c r="D30" s="38"/>
+      <c r="A30" s="41"/>
+      <c r="B30" s="39"/>
+      <c r="C30" s="39"/>
+      <c r="D30" s="39"/>
       <c r="E30" s="13"/>
       <c r="F30" s="13"/>
-      <c r="G30" s="38"/>
-      <c r="H30" s="38"/>
+      <c r="G30" s="39"/>
+      <c r="H30" s="39"/>
     </row>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="46"/>
-      <c r="B31" s="38"/>
-      <c r="C31" s="38"/>
-      <c r="D31" s="38"/>
+      <c r="A31" s="41"/>
+      <c r="B31" s="39"/>
+      <c r="C31" s="39"/>
+      <c r="D31" s="39"/>
       <c r="E31" s="13"/>
       <c r="F31" s="13"/>
-      <c r="G31" s="38"/>
-      <c r="H31" s="38"/>
+      <c r="G31" s="39"/>
+      <c r="H31" s="39"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="47"/>
+      <c r="A32" s="42"/>
       <c r="B32" s="24"/>
       <c r="C32" s="24"/>
       <c r="D32" s="24"/>
@@ -5613,89 +5613,89 @@
       </c>
     </row>
     <row r="34" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="45">
+      <c r="A34" s="40">
         <v>2</v>
       </c>
-      <c r="B34" s="44"/>
-      <c r="C34" s="41"/>
-      <c r="D34" s="41"/>
+      <c r="B34" s="43"/>
+      <c r="C34" s="44"/>
+      <c r="D34" s="44"/>
       <c r="E34" s="12"/>
       <c r="F34" s="12"/>
-      <c r="G34" s="42"/>
-      <c r="H34" s="42"/>
+      <c r="G34" s="38"/>
+      <c r="H34" s="38"/>
     </row>
     <row r="35" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="46"/>
-      <c r="B35" s="38"/>
-      <c r="C35" s="38"/>
-      <c r="D35" s="38"/>
+      <c r="A35" s="41"/>
+      <c r="B35" s="39"/>
+      <c r="C35" s="39"/>
+      <c r="D35" s="39"/>
       <c r="E35" s="13"/>
       <c r="F35" s="13"/>
-      <c r="G35" s="38"/>
-      <c r="H35" s="38"/>
+      <c r="G35" s="39"/>
+      <c r="H35" s="39"/>
     </row>
     <row r="36" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="46"/>
-      <c r="B36" s="38"/>
-      <c r="C36" s="38"/>
-      <c r="D36" s="38"/>
+      <c r="A36" s="41"/>
+      <c r="B36" s="39"/>
+      <c r="C36" s="39"/>
+      <c r="D36" s="39"/>
       <c r="E36" s="13"/>
       <c r="F36" s="13"/>
-      <c r="G36" s="38"/>
-      <c r="H36" s="38"/>
+      <c r="G36" s="39"/>
+      <c r="H36" s="39"/>
     </row>
     <row r="37" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="46"/>
-      <c r="B37" s="38"/>
-      <c r="C37" s="38"/>
-      <c r="D37" s="38"/>
+      <c r="A37" s="41"/>
+      <c r="B37" s="39"/>
+      <c r="C37" s="39"/>
+      <c r="D37" s="39"/>
       <c r="E37" s="13"/>
       <c r="F37" s="13"/>
-      <c r="G37" s="38"/>
-      <c r="H37" s="38"/>
+      <c r="G37" s="39"/>
+      <c r="H37" s="39"/>
     </row>
     <row r="38" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="46"/>
-      <c r="B38" s="38"/>
-      <c r="C38" s="38"/>
-      <c r="D38" s="38"/>
+      <c r="A38" s="41"/>
+      <c r="B38" s="39"/>
+      <c r="C38" s="39"/>
+      <c r="D38" s="39"/>
       <c r="E38" s="13"/>
       <c r="F38" s="13"/>
-      <c r="G38" s="38"/>
-      <c r="H38" s="38"/>
+      <c r="G38" s="39"/>
+      <c r="H38" s="39"/>
     </row>
     <row r="39" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="46"/>
-      <c r="B39" s="38"/>
-      <c r="C39" s="38"/>
-      <c r="D39" s="38"/>
+      <c r="A39" s="41"/>
+      <c r="B39" s="39"/>
+      <c r="C39" s="39"/>
+      <c r="D39" s="39"/>
       <c r="E39" s="13"/>
       <c r="F39" s="13"/>
-      <c r="G39" s="38"/>
-      <c r="H39" s="38"/>
+      <c r="G39" s="39"/>
+      <c r="H39" s="39"/>
     </row>
     <row r="40" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="46"/>
-      <c r="B40" s="38"/>
-      <c r="C40" s="38"/>
-      <c r="D40" s="38"/>
+      <c r="A40" s="41"/>
+      <c r="B40" s="39"/>
+      <c r="C40" s="39"/>
+      <c r="D40" s="39"/>
       <c r="E40" s="13"/>
       <c r="F40" s="13"/>
-      <c r="G40" s="38"/>
-      <c r="H40" s="38"/>
+      <c r="G40" s="39"/>
+      <c r="H40" s="39"/>
     </row>
     <row r="41" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="46"/>
-      <c r="B41" s="38"/>
-      <c r="C41" s="38"/>
-      <c r="D41" s="38"/>
+      <c r="A41" s="41"/>
+      <c r="B41" s="39"/>
+      <c r="C41" s="39"/>
+      <c r="D41" s="39"/>
       <c r="E41" s="13"/>
       <c r="F41" s="13"/>
-      <c r="G41" s="38"/>
-      <c r="H41" s="38"/>
+      <c r="G41" s="39"/>
+      <c r="H41" s="39"/>
     </row>
     <row r="42" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="47"/>
+      <c r="A42" s="42"/>
       <c r="B42" s="24"/>
       <c r="C42" s="24"/>
       <c r="D42" s="24"/>
@@ -5731,89 +5731,89 @@
       </c>
     </row>
     <row r="44" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="45">
+      <c r="A44" s="40">
         <v>3</v>
       </c>
-      <c r="B44" s="44"/>
-      <c r="C44" s="41"/>
-      <c r="D44" s="41"/>
+      <c r="B44" s="43"/>
+      <c r="C44" s="44"/>
+      <c r="D44" s="44"/>
       <c r="E44" s="12"/>
       <c r="F44" s="12"/>
-      <c r="G44" s="42"/>
-      <c r="H44" s="42"/>
+      <c r="G44" s="38"/>
+      <c r="H44" s="38"/>
     </row>
     <row r="45" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="46"/>
-      <c r="B45" s="38"/>
-      <c r="C45" s="38"/>
-      <c r="D45" s="38"/>
+      <c r="A45" s="41"/>
+      <c r="B45" s="39"/>
+      <c r="C45" s="39"/>
+      <c r="D45" s="39"/>
       <c r="E45" s="13"/>
       <c r="F45" s="13"/>
-      <c r="G45" s="38"/>
-      <c r="H45" s="38"/>
+      <c r="G45" s="39"/>
+      <c r="H45" s="39"/>
     </row>
     <row r="46" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="46"/>
-      <c r="B46" s="38"/>
-      <c r="C46" s="38"/>
-      <c r="D46" s="38"/>
+      <c r="A46" s="41"/>
+      <c r="B46" s="39"/>
+      <c r="C46" s="39"/>
+      <c r="D46" s="39"/>
       <c r="E46" s="13"/>
       <c r="F46" s="13"/>
-      <c r="G46" s="38"/>
-      <c r="H46" s="38"/>
+      <c r="G46" s="39"/>
+      <c r="H46" s="39"/>
     </row>
     <row r="47" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="46"/>
-      <c r="B47" s="38"/>
-      <c r="C47" s="38"/>
-      <c r="D47" s="38"/>
+      <c r="A47" s="41"/>
+      <c r="B47" s="39"/>
+      <c r="C47" s="39"/>
+      <c r="D47" s="39"/>
       <c r="E47" s="13"/>
       <c r="F47" s="13"/>
-      <c r="G47" s="38"/>
-      <c r="H47" s="38"/>
+      <c r="G47" s="39"/>
+      <c r="H47" s="39"/>
     </row>
     <row r="48" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="46"/>
-      <c r="B48" s="38"/>
-      <c r="C48" s="38"/>
-      <c r="D48" s="38"/>
+      <c r="A48" s="41"/>
+      <c r="B48" s="39"/>
+      <c r="C48" s="39"/>
+      <c r="D48" s="39"/>
       <c r="E48" s="13"/>
       <c r="F48" s="13"/>
-      <c r="G48" s="38"/>
-      <c r="H48" s="38"/>
+      <c r="G48" s="39"/>
+      <c r="H48" s="39"/>
     </row>
     <row r="49" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="46"/>
-      <c r="B49" s="38"/>
-      <c r="C49" s="38"/>
-      <c r="D49" s="38"/>
+      <c r="A49" s="41"/>
+      <c r="B49" s="39"/>
+      <c r="C49" s="39"/>
+      <c r="D49" s="39"/>
       <c r="E49" s="13"/>
       <c r="F49" s="13"/>
-      <c r="G49" s="38"/>
-      <c r="H49" s="38"/>
+      <c r="G49" s="39"/>
+      <c r="H49" s="39"/>
     </row>
     <row r="50" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="46"/>
-      <c r="B50" s="38"/>
-      <c r="C50" s="38"/>
-      <c r="D50" s="38"/>
+      <c r="A50" s="41"/>
+      <c r="B50" s="39"/>
+      <c r="C50" s="39"/>
+      <c r="D50" s="39"/>
       <c r="E50" s="13"/>
       <c r="F50" s="13"/>
-      <c r="G50" s="38"/>
-      <c r="H50" s="38"/>
+      <c r="G50" s="39"/>
+      <c r="H50" s="39"/>
     </row>
     <row r="51" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="46"/>
-      <c r="B51" s="38"/>
-      <c r="C51" s="38"/>
-      <c r="D51" s="38"/>
+      <c r="A51" s="41"/>
+      <c r="B51" s="39"/>
+      <c r="C51" s="39"/>
+      <c r="D51" s="39"/>
       <c r="E51" s="13"/>
       <c r="F51" s="13"/>
-      <c r="G51" s="38"/>
-      <c r="H51" s="38"/>
+      <c r="G51" s="39"/>
+      <c r="H51" s="39"/>
     </row>
     <row r="52" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="47"/>
+      <c r="A52" s="42"/>
       <c r="B52" s="24"/>
       <c r="C52" s="24"/>
       <c r="D52" s="24"/>
@@ -5849,89 +5849,89 @@
       </c>
     </row>
     <row r="54" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="45">
+      <c r="A54" s="40">
         <v>4</v>
       </c>
-      <c r="B54" s="44"/>
-      <c r="C54" s="41"/>
-      <c r="D54" s="41"/>
+      <c r="B54" s="43"/>
+      <c r="C54" s="44"/>
+      <c r="D54" s="44"/>
       <c r="E54" s="12"/>
       <c r="F54" s="12"/>
-      <c r="G54" s="42"/>
-      <c r="H54" s="42"/>
+      <c r="G54" s="38"/>
+      <c r="H54" s="38"/>
     </row>
     <row r="55" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="46"/>
-      <c r="B55" s="38"/>
-      <c r="C55" s="38"/>
-      <c r="D55" s="38"/>
+      <c r="A55" s="41"/>
+      <c r="B55" s="39"/>
+      <c r="C55" s="39"/>
+      <c r="D55" s="39"/>
       <c r="E55" s="13"/>
       <c r="F55" s="13"/>
-      <c r="G55" s="38"/>
-      <c r="H55" s="38"/>
+      <c r="G55" s="39"/>
+      <c r="H55" s="39"/>
     </row>
     <row r="56" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="46"/>
-      <c r="B56" s="38"/>
-      <c r="C56" s="38"/>
-      <c r="D56" s="38"/>
+      <c r="A56" s="41"/>
+      <c r="B56" s="39"/>
+      <c r="C56" s="39"/>
+      <c r="D56" s="39"/>
       <c r="E56" s="13"/>
       <c r="F56" s="13"/>
-      <c r="G56" s="38"/>
-      <c r="H56" s="38"/>
+      <c r="G56" s="39"/>
+      <c r="H56" s="39"/>
     </row>
     <row r="57" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="46"/>
-      <c r="B57" s="38"/>
-      <c r="C57" s="38"/>
-      <c r="D57" s="38"/>
+      <c r="A57" s="41"/>
+      <c r="B57" s="39"/>
+      <c r="C57" s="39"/>
+      <c r="D57" s="39"/>
       <c r="E57" s="13"/>
       <c r="F57" s="13"/>
-      <c r="G57" s="38"/>
-      <c r="H57" s="38"/>
+      <c r="G57" s="39"/>
+      <c r="H57" s="39"/>
     </row>
     <row r="58" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="46"/>
-      <c r="B58" s="38"/>
-      <c r="C58" s="38"/>
-      <c r="D58" s="38"/>
+      <c r="A58" s="41"/>
+      <c r="B58" s="39"/>
+      <c r="C58" s="39"/>
+      <c r="D58" s="39"/>
       <c r="E58" s="13"/>
       <c r="F58" s="13"/>
-      <c r="G58" s="38"/>
-      <c r="H58" s="38"/>
+      <c r="G58" s="39"/>
+      <c r="H58" s="39"/>
     </row>
     <row r="59" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="46"/>
-      <c r="B59" s="38"/>
-      <c r="C59" s="38"/>
-      <c r="D59" s="38"/>
+      <c r="A59" s="41"/>
+      <c r="B59" s="39"/>
+      <c r="C59" s="39"/>
+      <c r="D59" s="39"/>
       <c r="E59" s="13"/>
       <c r="F59" s="13"/>
-      <c r="G59" s="38"/>
-      <c r="H59" s="38"/>
+      <c r="G59" s="39"/>
+      <c r="H59" s="39"/>
     </row>
     <row r="60" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="46"/>
-      <c r="B60" s="38"/>
-      <c r="C60" s="38"/>
-      <c r="D60" s="38"/>
+      <c r="A60" s="41"/>
+      <c r="B60" s="39"/>
+      <c r="C60" s="39"/>
+      <c r="D60" s="39"/>
       <c r="E60" s="13"/>
       <c r="F60" s="13"/>
-      <c r="G60" s="38"/>
-      <c r="H60" s="38"/>
+      <c r="G60" s="39"/>
+      <c r="H60" s="39"/>
     </row>
     <row r="61" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="46"/>
-      <c r="B61" s="38"/>
-      <c r="C61" s="38"/>
-      <c r="D61" s="38"/>
+      <c r="A61" s="41"/>
+      <c r="B61" s="39"/>
+      <c r="C61" s="39"/>
+      <c r="D61" s="39"/>
       <c r="E61" s="13"/>
       <c r="F61" s="13"/>
-      <c r="G61" s="38"/>
-      <c r="H61" s="38"/>
+      <c r="G61" s="39"/>
+      <c r="H61" s="39"/>
     </row>
     <row r="62" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="47"/>
+      <c r="A62" s="42"/>
       <c r="B62" s="24"/>
       <c r="C62" s="24"/>
       <c r="D62" s="24"/>
@@ -5967,89 +5967,89 @@
       </c>
     </row>
     <row r="64" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="45" t="s">
+      <c r="A64" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="B64" s="44"/>
-      <c r="C64" s="41"/>
-      <c r="D64" s="41"/>
+      <c r="B64" s="43"/>
+      <c r="C64" s="44"/>
+      <c r="D64" s="44"/>
       <c r="E64" s="12"/>
       <c r="F64" s="12"/>
-      <c r="G64" s="42"/>
-      <c r="H64" s="42"/>
+      <c r="G64" s="38"/>
+      <c r="H64" s="38"/>
     </row>
     <row r="65" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="46"/>
-      <c r="B65" s="38"/>
-      <c r="C65" s="38"/>
-      <c r="D65" s="38"/>
+      <c r="A65" s="41"/>
+      <c r="B65" s="39"/>
+      <c r="C65" s="39"/>
+      <c r="D65" s="39"/>
       <c r="E65" s="13"/>
       <c r="F65" s="13"/>
-      <c r="G65" s="38"/>
-      <c r="H65" s="38"/>
+      <c r="G65" s="39"/>
+      <c r="H65" s="39"/>
     </row>
     <row r="66" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="46"/>
-      <c r="B66" s="38"/>
-      <c r="C66" s="38"/>
-      <c r="D66" s="38"/>
+      <c r="A66" s="41"/>
+      <c r="B66" s="39"/>
+      <c r="C66" s="39"/>
+      <c r="D66" s="39"/>
       <c r="E66" s="13"/>
       <c r="F66" s="13"/>
-      <c r="G66" s="38"/>
-      <c r="H66" s="38"/>
+      <c r="G66" s="39"/>
+      <c r="H66" s="39"/>
     </row>
     <row r="67" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="46"/>
-      <c r="B67" s="38"/>
-      <c r="C67" s="38"/>
-      <c r="D67" s="38"/>
+      <c r="A67" s="41"/>
+      <c r="B67" s="39"/>
+      <c r="C67" s="39"/>
+      <c r="D67" s="39"/>
       <c r="E67" s="13"/>
       <c r="F67" s="13"/>
-      <c r="G67" s="38"/>
-      <c r="H67" s="38"/>
+      <c r="G67" s="39"/>
+      <c r="H67" s="39"/>
     </row>
     <row r="68" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="46"/>
-      <c r="B68" s="38"/>
-      <c r="C68" s="38"/>
-      <c r="D68" s="38"/>
+      <c r="A68" s="41"/>
+      <c r="B68" s="39"/>
+      <c r="C68" s="39"/>
+      <c r="D68" s="39"/>
       <c r="E68" s="13"/>
       <c r="F68" s="13"/>
-      <c r="G68" s="38"/>
-      <c r="H68" s="38"/>
+      <c r="G68" s="39"/>
+      <c r="H68" s="39"/>
     </row>
     <row r="69" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="46"/>
-      <c r="B69" s="38"/>
-      <c r="C69" s="38"/>
-      <c r="D69" s="38"/>
+      <c r="A69" s="41"/>
+      <c r="B69" s="39"/>
+      <c r="C69" s="39"/>
+      <c r="D69" s="39"/>
       <c r="E69" s="13"/>
       <c r="F69" s="13"/>
-      <c r="G69" s="38"/>
-      <c r="H69" s="38"/>
+      <c r="G69" s="39"/>
+      <c r="H69" s="39"/>
     </row>
     <row r="70" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="46"/>
-      <c r="B70" s="38"/>
-      <c r="C70" s="38"/>
-      <c r="D70" s="38"/>
+      <c r="A70" s="41"/>
+      <c r="B70" s="39"/>
+      <c r="C70" s="39"/>
+      <c r="D70" s="39"/>
       <c r="E70" s="13"/>
       <c r="F70" s="13"/>
-      <c r="G70" s="38"/>
-      <c r="H70" s="38"/>
+      <c r="G70" s="39"/>
+      <c r="H70" s="39"/>
     </row>
     <row r="71" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="46"/>
-      <c r="B71" s="38"/>
-      <c r="C71" s="38"/>
-      <c r="D71" s="38"/>
+      <c r="A71" s="41"/>
+      <c r="B71" s="39"/>
+      <c r="C71" s="39"/>
+      <c r="D71" s="39"/>
       <c r="E71" s="13"/>
       <c r="F71" s="13"/>
-      <c r="G71" s="38"/>
-      <c r="H71" s="38"/>
+      <c r="G71" s="39"/>
+      <c r="H71" s="39"/>
     </row>
     <row r="72" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="47"/>
+      <c r="A72" s="42"/>
       <c r="B72" s="24"/>
       <c r="C72" s="24"/>
       <c r="D72" s="24"/>
@@ -6987,6 +6987,24 @@
     <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="D24:D32"/>
+    <mergeCell ref="G24:G32"/>
+    <mergeCell ref="G34:G42"/>
+    <mergeCell ref="H34:H42"/>
+    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="A21:H22"/>
+    <mergeCell ref="B24:B32"/>
+    <mergeCell ref="C24:C32"/>
+    <mergeCell ref="H24:H32"/>
+    <mergeCell ref="A3:H4"/>
+    <mergeCell ref="A5:H19"/>
+    <mergeCell ref="H44:H52"/>
+    <mergeCell ref="A54:A62"/>
+    <mergeCell ref="B54:B62"/>
+    <mergeCell ref="C54:C62"/>
+    <mergeCell ref="D54:D62"/>
+    <mergeCell ref="G54:G62"/>
+    <mergeCell ref="H54:H62"/>
     <mergeCell ref="H64:H72"/>
     <mergeCell ref="A24:A32"/>
     <mergeCell ref="A34:A42"/>
@@ -7003,24 +7021,6 @@
     <mergeCell ref="C44:C52"/>
     <mergeCell ref="D44:D52"/>
     <mergeCell ref="G44:G52"/>
-    <mergeCell ref="H44:H52"/>
-    <mergeCell ref="A54:A62"/>
-    <mergeCell ref="B54:B62"/>
-    <mergeCell ref="C54:C62"/>
-    <mergeCell ref="D54:D62"/>
-    <mergeCell ref="G54:G62"/>
-    <mergeCell ref="H54:H62"/>
-    <mergeCell ref="D24:D32"/>
-    <mergeCell ref="G24:G32"/>
-    <mergeCell ref="G34:G42"/>
-    <mergeCell ref="H34:H42"/>
-    <mergeCell ref="A1:H2"/>
-    <mergeCell ref="A21:H22"/>
-    <mergeCell ref="B24:B32"/>
-    <mergeCell ref="C24:C32"/>
-    <mergeCell ref="H24:H32"/>
-    <mergeCell ref="A3:H4"/>
-    <mergeCell ref="A5:H19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7114,89 +7114,89 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="45">
+      <c r="A6" s="40">
         <v>1</v>
       </c>
-      <c r="B6" s="44"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
       <c r="E6" s="12"/>
       <c r="F6" s="12"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="42"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
     </row>
     <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="46"/>
-      <c r="B7" s="38"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
+      <c r="A7" s="41"/>
+      <c r="B7" s="39"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
       <c r="E7" s="13"/>
       <c r="F7" s="13"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39"/>
     </row>
     <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="46"/>
-      <c r="B8" s="38"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
+      <c r="A8" s="41"/>
+      <c r="B8" s="39"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
       <c r="E8" s="13"/>
       <c r="F8" s="13"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="39"/>
     </row>
     <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="46"/>
-      <c r="B9" s="38"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
+      <c r="A9" s="41"/>
+      <c r="B9" s="39"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
       <c r="E9" s="13"/>
       <c r="F9" s="13"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="38"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="39"/>
     </row>
     <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="46"/>
-      <c r="B10" s="38"/>
-      <c r="C10" s="38"/>
-      <c r="D10" s="38"/>
+      <c r="A10" s="41"/>
+      <c r="B10" s="39"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
-      <c r="G10" s="38"/>
-      <c r="H10" s="38"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="39"/>
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="46"/>
-      <c r="B11" s="38"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
+      <c r="A11" s="41"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="39"/>
       <c r="E11" s="13"/>
       <c r="F11" s="13"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="38"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="39"/>
     </row>
     <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="46"/>
-      <c r="B12" s="38"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="38"/>
+      <c r="A12" s="41"/>
+      <c r="B12" s="39"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
       <c r="E12" s="13"/>
       <c r="F12" s="13"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="38"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="39"/>
     </row>
     <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="46"/>
-      <c r="B13" s="38"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="38"/>
+      <c r="A13" s="41"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
       <c r="E13" s="13"/>
       <c r="F13" s="13"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="38"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="39"/>
     </row>
     <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="47"/>
+      <c r="A14" s="42"/>
       <c r="B14" s="24"/>
       <c r="C14" s="24"/>
       <c r="D14" s="24"/>
@@ -7232,89 +7232,89 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="45">
+      <c r="A16" s="40">
         <v>2</v>
       </c>
-      <c r="B16" s="44"/>
-      <c r="C16" s="41"/>
-      <c r="D16" s="41"/>
+      <c r="B16" s="43"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="44"/>
       <c r="E16" s="12"/>
       <c r="F16" s="12"/>
-      <c r="G16" s="42"/>
-      <c r="H16" s="42"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="38"/>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="46"/>
-      <c r="B17" s="38"/>
-      <c r="C17" s="38"/>
-      <c r="D17" s="38"/>
+      <c r="A17" s="41"/>
+      <c r="B17" s="39"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="39"/>
       <c r="E17" s="13"/>
       <c r="F17" s="13"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="38"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="39"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="46"/>
-      <c r="B18" s="38"/>
-      <c r="C18" s="38"/>
-      <c r="D18" s="38"/>
+      <c r="A18" s="41"/>
+      <c r="B18" s="39"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="39"/>
       <c r="E18" s="13"/>
       <c r="F18" s="13"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="38"/>
+      <c r="G18" s="39"/>
+      <c r="H18" s="39"/>
     </row>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="46"/>
-      <c r="B19" s="38"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="38"/>
+      <c r="A19" s="41"/>
+      <c r="B19" s="39"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="39"/>
       <c r="E19" s="13"/>
       <c r="F19" s="13"/>
-      <c r="G19" s="38"/>
-      <c r="H19" s="38"/>
+      <c r="G19" s="39"/>
+      <c r="H19" s="39"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="46"/>
-      <c r="B20" s="38"/>
-      <c r="C20" s="38"/>
-      <c r="D20" s="38"/>
+      <c r="A20" s="41"/>
+      <c r="B20" s="39"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="39"/>
       <c r="E20" s="13"/>
       <c r="F20" s="13"/>
-      <c r="G20" s="38"/>
-      <c r="H20" s="38"/>
+      <c r="G20" s="39"/>
+      <c r="H20" s="39"/>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="46"/>
-      <c r="B21" s="38"/>
-      <c r="C21" s="38"/>
-      <c r="D21" s="38"/>
+      <c r="A21" s="41"/>
+      <c r="B21" s="39"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="39"/>
       <c r="E21" s="13"/>
       <c r="F21" s="13"/>
-      <c r="G21" s="38"/>
-      <c r="H21" s="38"/>
+      <c r="G21" s="39"/>
+      <c r="H21" s="39"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="46"/>
-      <c r="B22" s="38"/>
-      <c r="C22" s="38"/>
-      <c r="D22" s="38"/>
+      <c r="A22" s="41"/>
+      <c r="B22" s="39"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="39"/>
       <c r="E22" s="13"/>
       <c r="F22" s="13"/>
-      <c r="G22" s="38"/>
-      <c r="H22" s="38"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="39"/>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="46"/>
-      <c r="B23" s="38"/>
-      <c r="C23" s="38"/>
-      <c r="D23" s="38"/>
+      <c r="A23" s="41"/>
+      <c r="B23" s="39"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="39"/>
       <c r="E23" s="13"/>
       <c r="F23" s="13"/>
-      <c r="G23" s="38"/>
-      <c r="H23" s="38"/>
+      <c r="G23" s="39"/>
+      <c r="H23" s="39"/>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="47"/>
+      <c r="A24" s="42"/>
       <c r="B24" s="24"/>
       <c r="C24" s="24"/>
       <c r="D24" s="24"/>
@@ -7350,89 +7350,89 @@
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="45">
+      <c r="A26" s="40">
         <v>3</v>
       </c>
-      <c r="B26" s="44"/>
-      <c r="C26" s="41"/>
-      <c r="D26" s="41"/>
+      <c r="B26" s="43"/>
+      <c r="C26" s="44"/>
+      <c r="D26" s="44"/>
       <c r="E26" s="12"/>
       <c r="F26" s="12"/>
-      <c r="G26" s="42"/>
-      <c r="H26" s="42"/>
+      <c r="G26" s="38"/>
+      <c r="H26" s="38"/>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="46"/>
-      <c r="B27" s="38"/>
-      <c r="C27" s="38"/>
-      <c r="D27" s="38"/>
+      <c r="A27" s="41"/>
+      <c r="B27" s="39"/>
+      <c r="C27" s="39"/>
+      <c r="D27" s="39"/>
       <c r="E27" s="13"/>
       <c r="F27" s="13"/>
-      <c r="G27" s="38"/>
-      <c r="H27" s="38"/>
+      <c r="G27" s="39"/>
+      <c r="H27" s="39"/>
     </row>
     <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="46"/>
-      <c r="B28" s="38"/>
-      <c r="C28" s="38"/>
-      <c r="D28" s="38"/>
+      <c r="A28" s="41"/>
+      <c r="B28" s="39"/>
+      <c r="C28" s="39"/>
+      <c r="D28" s="39"/>
       <c r="E28" s="13"/>
       <c r="F28" s="13"/>
-      <c r="G28" s="38"/>
-      <c r="H28" s="38"/>
+      <c r="G28" s="39"/>
+      <c r="H28" s="39"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="46"/>
-      <c r="B29" s="38"/>
-      <c r="C29" s="38"/>
-      <c r="D29" s="38"/>
+      <c r="A29" s="41"/>
+      <c r="B29" s="39"/>
+      <c r="C29" s="39"/>
+      <c r="D29" s="39"/>
       <c r="E29" s="13"/>
       <c r="F29" s="13"/>
-      <c r="G29" s="38"/>
-      <c r="H29" s="38"/>
+      <c r="G29" s="39"/>
+      <c r="H29" s="39"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="46"/>
-      <c r="B30" s="38"/>
-      <c r="C30" s="38"/>
-      <c r="D30" s="38"/>
+      <c r="A30" s="41"/>
+      <c r="B30" s="39"/>
+      <c r="C30" s="39"/>
+      <c r="D30" s="39"/>
       <c r="E30" s="13"/>
       <c r="F30" s="13"/>
-      <c r="G30" s="38"/>
-      <c r="H30" s="38"/>
+      <c r="G30" s="39"/>
+      <c r="H30" s="39"/>
     </row>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="46"/>
-      <c r="B31" s="38"/>
-      <c r="C31" s="38"/>
-      <c r="D31" s="38"/>
+      <c r="A31" s="41"/>
+      <c r="B31" s="39"/>
+      <c r="C31" s="39"/>
+      <c r="D31" s="39"/>
       <c r="E31" s="13"/>
       <c r="F31" s="13"/>
-      <c r="G31" s="38"/>
-      <c r="H31" s="38"/>
+      <c r="G31" s="39"/>
+      <c r="H31" s="39"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="46"/>
-      <c r="B32" s="38"/>
-      <c r="C32" s="38"/>
-      <c r="D32" s="38"/>
+      <c r="A32" s="41"/>
+      <c r="B32" s="39"/>
+      <c r="C32" s="39"/>
+      <c r="D32" s="39"/>
       <c r="E32" s="13"/>
       <c r="F32" s="13"/>
-      <c r="G32" s="38"/>
-      <c r="H32" s="38"/>
+      <c r="G32" s="39"/>
+      <c r="H32" s="39"/>
     </row>
     <row r="33" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="46"/>
-      <c r="B33" s="38"/>
-      <c r="C33" s="38"/>
-      <c r="D33" s="38"/>
+      <c r="A33" s="41"/>
+      <c r="B33" s="39"/>
+      <c r="C33" s="39"/>
+      <c r="D33" s="39"/>
       <c r="E33" s="13"/>
       <c r="F33" s="13"/>
-      <c r="G33" s="38"/>
-      <c r="H33" s="38"/>
+      <c r="G33" s="39"/>
+      <c r="H33" s="39"/>
     </row>
     <row r="34" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="47"/>
+      <c r="A34" s="42"/>
       <c r="B34" s="24"/>
       <c r="C34" s="24"/>
       <c r="D34" s="24"/>
@@ -7468,89 +7468,89 @@
       </c>
     </row>
     <row r="36" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="45">
+      <c r="A36" s="40">
         <v>4</v>
       </c>
-      <c r="B36" s="44"/>
-      <c r="C36" s="41"/>
-      <c r="D36" s="41"/>
+      <c r="B36" s="43"/>
+      <c r="C36" s="44"/>
+      <c r="D36" s="44"/>
       <c r="E36" s="12"/>
       <c r="F36" s="12"/>
-      <c r="G36" s="42"/>
-      <c r="H36" s="42"/>
+      <c r="G36" s="38"/>
+      <c r="H36" s="38"/>
     </row>
     <row r="37" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="46"/>
-      <c r="B37" s="38"/>
-      <c r="C37" s="38"/>
-      <c r="D37" s="38"/>
+      <c r="A37" s="41"/>
+      <c r="B37" s="39"/>
+      <c r="C37" s="39"/>
+      <c r="D37" s="39"/>
       <c r="E37" s="13"/>
       <c r="F37" s="13"/>
-      <c r="G37" s="38"/>
-      <c r="H37" s="38"/>
+      <c r="G37" s="39"/>
+      <c r="H37" s="39"/>
     </row>
     <row r="38" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="46"/>
-      <c r="B38" s="38"/>
-      <c r="C38" s="38"/>
-      <c r="D38" s="38"/>
+      <c r="A38" s="41"/>
+      <c r="B38" s="39"/>
+      <c r="C38" s="39"/>
+      <c r="D38" s="39"/>
       <c r="E38" s="13"/>
       <c r="F38" s="13"/>
-      <c r="G38" s="38"/>
-      <c r="H38" s="38"/>
+      <c r="G38" s="39"/>
+      <c r="H38" s="39"/>
     </row>
     <row r="39" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="46"/>
-      <c r="B39" s="38"/>
-      <c r="C39" s="38"/>
-      <c r="D39" s="38"/>
+      <c r="A39" s="41"/>
+      <c r="B39" s="39"/>
+      <c r="C39" s="39"/>
+      <c r="D39" s="39"/>
       <c r="E39" s="13"/>
       <c r="F39" s="13"/>
-      <c r="G39" s="38"/>
-      <c r="H39" s="38"/>
+      <c r="G39" s="39"/>
+      <c r="H39" s="39"/>
     </row>
     <row r="40" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="46"/>
-      <c r="B40" s="38"/>
-      <c r="C40" s="38"/>
-      <c r="D40" s="38"/>
+      <c r="A40" s="41"/>
+      <c r="B40" s="39"/>
+      <c r="C40" s="39"/>
+      <c r="D40" s="39"/>
       <c r="E40" s="13"/>
       <c r="F40" s="13"/>
-      <c r="G40" s="38"/>
-      <c r="H40" s="38"/>
+      <c r="G40" s="39"/>
+      <c r="H40" s="39"/>
     </row>
     <row r="41" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="46"/>
-      <c r="B41" s="38"/>
-      <c r="C41" s="38"/>
-      <c r="D41" s="38"/>
+      <c r="A41" s="41"/>
+      <c r="B41" s="39"/>
+      <c r="C41" s="39"/>
+      <c r="D41" s="39"/>
       <c r="E41" s="13"/>
       <c r="F41" s="13"/>
-      <c r="G41" s="38"/>
-      <c r="H41" s="38"/>
+      <c r="G41" s="39"/>
+      <c r="H41" s="39"/>
     </row>
     <row r="42" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="46"/>
-      <c r="B42" s="38"/>
-      <c r="C42" s="38"/>
-      <c r="D42" s="38"/>
+      <c r="A42" s="41"/>
+      <c r="B42" s="39"/>
+      <c r="C42" s="39"/>
+      <c r="D42" s="39"/>
       <c r="E42" s="13"/>
       <c r="F42" s="13"/>
-      <c r="G42" s="38"/>
-      <c r="H42" s="38"/>
+      <c r="G42" s="39"/>
+      <c r="H42" s="39"/>
     </row>
     <row r="43" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="46"/>
-      <c r="B43" s="38"/>
-      <c r="C43" s="38"/>
-      <c r="D43" s="38"/>
+      <c r="A43" s="41"/>
+      <c r="B43" s="39"/>
+      <c r="C43" s="39"/>
+      <c r="D43" s="39"/>
       <c r="E43" s="13"/>
       <c r="F43" s="13"/>
-      <c r="G43" s="38"/>
-      <c r="H43" s="38"/>
+      <c r="G43" s="39"/>
+      <c r="H43" s="39"/>
     </row>
     <row r="44" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="47"/>
+      <c r="A44" s="42"/>
       <c r="B44" s="24"/>
       <c r="C44" s="24"/>
       <c r="D44" s="24"/>
@@ -7586,89 +7586,89 @@
       </c>
     </row>
     <row r="46" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="45" t="s">
+      <c r="A46" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="B46" s="44"/>
-      <c r="C46" s="41"/>
-      <c r="D46" s="41"/>
+      <c r="B46" s="43"/>
+      <c r="C46" s="44"/>
+      <c r="D46" s="44"/>
       <c r="E46" s="12"/>
       <c r="F46" s="12"/>
-      <c r="G46" s="42"/>
-      <c r="H46" s="42"/>
+      <c r="G46" s="38"/>
+      <c r="H46" s="38"/>
     </row>
     <row r="47" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="46"/>
-      <c r="B47" s="38"/>
-      <c r="C47" s="38"/>
-      <c r="D47" s="38"/>
+      <c r="A47" s="41"/>
+      <c r="B47" s="39"/>
+      <c r="C47" s="39"/>
+      <c r="D47" s="39"/>
       <c r="E47" s="13"/>
       <c r="F47" s="13"/>
-      <c r="G47" s="38"/>
-      <c r="H47" s="38"/>
+      <c r="G47" s="39"/>
+      <c r="H47" s="39"/>
     </row>
     <row r="48" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="46"/>
-      <c r="B48" s="38"/>
-      <c r="C48" s="38"/>
-      <c r="D48" s="38"/>
+      <c r="A48" s="41"/>
+      <c r="B48" s="39"/>
+      <c r="C48" s="39"/>
+      <c r="D48" s="39"/>
       <c r="E48" s="13"/>
       <c r="F48" s="13"/>
-      <c r="G48" s="38"/>
-      <c r="H48" s="38"/>
+      <c r="G48" s="39"/>
+      <c r="H48" s="39"/>
     </row>
     <row r="49" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="46"/>
-      <c r="B49" s="38"/>
-      <c r="C49" s="38"/>
-      <c r="D49" s="38"/>
+      <c r="A49" s="41"/>
+      <c r="B49" s="39"/>
+      <c r="C49" s="39"/>
+      <c r="D49" s="39"/>
       <c r="E49" s="13"/>
       <c r="F49" s="13"/>
-      <c r="G49" s="38"/>
-      <c r="H49" s="38"/>
+      <c r="G49" s="39"/>
+      <c r="H49" s="39"/>
     </row>
     <row r="50" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="46"/>
-      <c r="B50" s="38"/>
-      <c r="C50" s="38"/>
-      <c r="D50" s="38"/>
+      <c r="A50" s="41"/>
+      <c r="B50" s="39"/>
+      <c r="C50" s="39"/>
+      <c r="D50" s="39"/>
       <c r="E50" s="13"/>
       <c r="F50" s="13"/>
-      <c r="G50" s="38"/>
-      <c r="H50" s="38"/>
+      <c r="G50" s="39"/>
+      <c r="H50" s="39"/>
     </row>
     <row r="51" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="46"/>
-      <c r="B51" s="38"/>
-      <c r="C51" s="38"/>
-      <c r="D51" s="38"/>
+      <c r="A51" s="41"/>
+      <c r="B51" s="39"/>
+      <c r="C51" s="39"/>
+      <c r="D51" s="39"/>
       <c r="E51" s="13"/>
       <c r="F51" s="13"/>
-      <c r="G51" s="38"/>
-      <c r="H51" s="38"/>
+      <c r="G51" s="39"/>
+      <c r="H51" s="39"/>
     </row>
     <row r="52" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="46"/>
-      <c r="B52" s="38"/>
-      <c r="C52" s="38"/>
-      <c r="D52" s="38"/>
+      <c r="A52" s="41"/>
+      <c r="B52" s="39"/>
+      <c r="C52" s="39"/>
+      <c r="D52" s="39"/>
       <c r="E52" s="13"/>
       <c r="F52" s="13"/>
-      <c r="G52" s="38"/>
-      <c r="H52" s="38"/>
+      <c r="G52" s="39"/>
+      <c r="H52" s="39"/>
     </row>
     <row r="53" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="46"/>
-      <c r="B53" s="38"/>
-      <c r="C53" s="38"/>
-      <c r="D53" s="38"/>
+      <c r="A53" s="41"/>
+      <c r="B53" s="39"/>
+      <c r="C53" s="39"/>
+      <c r="D53" s="39"/>
       <c r="E53" s="13"/>
       <c r="F53" s="13"/>
-      <c r="G53" s="38"/>
-      <c r="H53" s="38"/>
+      <c r="G53" s="39"/>
+      <c r="H53" s="39"/>
     </row>
     <row r="54" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="47"/>
+      <c r="A54" s="42"/>
       <c r="B54" s="24"/>
       <c r="C54" s="24"/>
       <c r="D54" s="24"/>
@@ -7679,14 +7679,14 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="H16:H24"/>
-    <mergeCell ref="B36:B44"/>
-    <mergeCell ref="C36:C44"/>
-    <mergeCell ref="A16:A24"/>
-    <mergeCell ref="B16:B24"/>
-    <mergeCell ref="C16:C24"/>
-    <mergeCell ref="D16:D24"/>
-    <mergeCell ref="G16:G24"/>
+    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="A3:H4"/>
+    <mergeCell ref="B6:B14"/>
+    <mergeCell ref="C6:C14"/>
+    <mergeCell ref="D6:D14"/>
+    <mergeCell ref="G6:G14"/>
+    <mergeCell ref="H6:H14"/>
+    <mergeCell ref="A6:A14"/>
     <mergeCell ref="H46:H54"/>
     <mergeCell ref="A26:A34"/>
     <mergeCell ref="B26:B34"/>
@@ -7703,14 +7703,14 @@
     <mergeCell ref="A36:A44"/>
     <mergeCell ref="D36:D44"/>
     <mergeCell ref="H36:H44"/>
-    <mergeCell ref="A1:H2"/>
-    <mergeCell ref="A3:H4"/>
-    <mergeCell ref="B6:B14"/>
-    <mergeCell ref="C6:C14"/>
-    <mergeCell ref="D6:D14"/>
-    <mergeCell ref="G6:G14"/>
-    <mergeCell ref="H6:H14"/>
-    <mergeCell ref="A6:A14"/>
+    <mergeCell ref="H16:H24"/>
+    <mergeCell ref="B36:B44"/>
+    <mergeCell ref="C36:C44"/>
+    <mergeCell ref="A16:A24"/>
+    <mergeCell ref="B16:B24"/>
+    <mergeCell ref="C16:C24"/>
+    <mergeCell ref="D16:D24"/>
+    <mergeCell ref="G16:G24"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A3" r:id="rId1" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
@@ -7775,7 +7775,7 @@
       <c r="H4" s="24"/>
     </row>
     <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="36" t="s">
+      <c r="A5" s="46" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="20"/>
@@ -7787,34 +7787,34 @@
       <c r="H5" s="21"/>
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="37"/>
+      <c r="A6" s="47"/>
       <c r="B6" s="18"/>
       <c r="C6" s="18"/>
       <c r="D6" s="18"/>
       <c r="E6" s="18"/>
       <c r="F6" s="18"/>
       <c r="G6" s="18"/>
-      <c r="H6" s="38"/>
+      <c r="H6" s="39"/>
     </row>
     <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="37"/>
+      <c r="A7" s="47"/>
       <c r="B7" s="18"/>
       <c r="C7" s="18"/>
       <c r="D7" s="18"/>
       <c r="E7" s="18"/>
       <c r="F7" s="18"/>
       <c r="G7" s="18"/>
-      <c r="H7" s="38"/>
+      <c r="H7" s="39"/>
     </row>
     <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="37"/>
+      <c r="A8" s="47"/>
       <c r="B8" s="18"/>
       <c r="C8" s="18"/>
       <c r="D8" s="18"/>
       <c r="E8" s="18"/>
       <c r="F8" s="18"/>
       <c r="G8" s="18"/>
-      <c r="H8" s="38"/>
+      <c r="H8" s="39"/>
     </row>
     <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="22"/>
@@ -7849,7 +7849,7 @@
       <c r="H11" s="24"/>
     </row>
     <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="36" t="s">
+      <c r="A12" s="46" t="s">
         <v>3</v>
       </c>
       <c r="B12" s="20"/>
@@ -7861,34 +7861,34 @@
       <c r="H12" s="21"/>
     </row>
     <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="37"/>
+      <c r="A13" s="47"/>
       <c r="B13" s="18"/>
       <c r="C13" s="18"/>
       <c r="D13" s="18"/>
       <c r="E13" s="18"/>
       <c r="F13" s="18"/>
       <c r="G13" s="18"/>
-      <c r="H13" s="38"/>
+      <c r="H13" s="39"/>
     </row>
     <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="37"/>
+      <c r="A14" s="47"/>
       <c r="B14" s="18"/>
       <c r="C14" s="18"/>
       <c r="D14" s="18"/>
       <c r="E14" s="18"/>
       <c r="F14" s="18"/>
       <c r="G14" s="18"/>
-      <c r="H14" s="38"/>
+      <c r="H14" s="39"/>
     </row>
     <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="37"/>
+      <c r="A15" s="47"/>
       <c r="B15" s="18"/>
       <c r="C15" s="18"/>
       <c r="D15" s="18"/>
       <c r="E15" s="18"/>
       <c r="F15" s="18"/>
       <c r="G15" s="18"/>
-      <c r="H15" s="38"/>
+      <c r="H15" s="39"/>
     </row>
     <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="22"/>
@@ -7923,7 +7923,7 @@
       <c r="H18" s="24"/>
     </row>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="36" t="s">
+      <c r="A19" s="46" t="s">
         <v>3</v>
       </c>
       <c r="B19" s="20"/>
@@ -7935,34 +7935,34 @@
       <c r="H19" s="21"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="37"/>
+      <c r="A20" s="47"/>
       <c r="B20" s="18"/>
       <c r="C20" s="18"/>
       <c r="D20" s="18"/>
       <c r="E20" s="18"/>
       <c r="F20" s="18"/>
       <c r="G20" s="18"/>
-      <c r="H20" s="38"/>
+      <c r="H20" s="39"/>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="37"/>
+      <c r="A21" s="47"/>
       <c r="B21" s="18"/>
       <c r="C21" s="18"/>
       <c r="D21" s="18"/>
       <c r="E21" s="18"/>
       <c r="F21" s="18"/>
       <c r="G21" s="18"/>
-      <c r="H21" s="38"/>
+      <c r="H21" s="39"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="37"/>
+      <c r="A22" s="47"/>
       <c r="B22" s="18"/>
       <c r="C22" s="18"/>
       <c r="D22" s="18"/>
       <c r="E22" s="18"/>
       <c r="F22" s="18"/>
       <c r="G22" s="18"/>
-      <c r="H22" s="38"/>
+      <c r="H22" s="39"/>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="22"/>
@@ -7997,7 +7997,7 @@
       <c r="H25" s="24"/>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="36" t="s">
+      <c r="A26" s="46" t="s">
         <v>3</v>
       </c>
       <c r="B26" s="20"/>
@@ -8009,34 +8009,34 @@
       <c r="H26" s="21"/>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="37"/>
+      <c r="A27" s="47"/>
       <c r="B27" s="18"/>
       <c r="C27" s="18"/>
       <c r="D27" s="18"/>
       <c r="E27" s="18"/>
       <c r="F27" s="18"/>
       <c r="G27" s="18"/>
-      <c r="H27" s="38"/>
+      <c r="H27" s="39"/>
     </row>
     <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="37"/>
+      <c r="A28" s="47"/>
       <c r="B28" s="18"/>
       <c r="C28" s="18"/>
       <c r="D28" s="18"/>
       <c r="E28" s="18"/>
       <c r="F28" s="18"/>
       <c r="G28" s="18"/>
-      <c r="H28" s="38"/>
+      <c r="H28" s="39"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="37"/>
+      <c r="A29" s="47"/>
       <c r="B29" s="18"/>
       <c r="C29" s="18"/>
       <c r="D29" s="18"/>
       <c r="E29" s="18"/>
       <c r="F29" s="18"/>
       <c r="G29" s="18"/>
-      <c r="H29" s="38"/>
+      <c r="H29" s="39"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="22"/>
@@ -9077,7 +9077,7 @@
       <c r="I2" s="24"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="59" t="s">
+      <c r="A3" s="60" t="s">
         <v>31</v>
       </c>
       <c r="B3" s="20"/>
@@ -9104,14 +9104,14 @@
       <c r="A5" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="57" t="s">
+      <c r="B5" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="58"/>
-      <c r="D5" s="57" t="s">
+      <c r="C5" s="59"/>
+      <c r="D5" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="58"/>
+      <c r="E5" s="59"/>
       <c r="F5" s="11" t="s">
         <v>32</v>
       </c>
@@ -9126,114 +9126,114 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="60">
+      <c r="A6" s="52">
         <v>1</v>
       </c>
-      <c r="B6" s="51"/>
+      <c r="B6" s="53"/>
       <c r="C6" s="21"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="38"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="39"/>
       <c r="F6" s="5"/>
       <c r="G6" s="50"/>
       <c r="H6" s="50"/>
-      <c r="I6" s="49"/>
+      <c r="I6" s="61"/>
     </row>
     <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="46"/>
-      <c r="B7" s="37"/>
-      <c r="C7" s="38"/>
+      <c r="A7" s="41"/>
+      <c r="B7" s="47"/>
+      <c r="C7" s="39"/>
       <c r="D7" s="18"/>
-      <c r="E7" s="38"/>
+      <c r="E7" s="39"/>
       <c r="F7" s="13"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="38"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39"/>
+      <c r="I7" s="39"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="46"/>
+      <c r="A8" s="41"/>
       <c r="B8" s="22"/>
       <c r="C8" s="24"/>
       <c r="D8" s="18"/>
-      <c r="E8" s="38"/>
+      <c r="E8" s="39"/>
       <c r="F8" s="13"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38"/>
-      <c r="I8" s="38"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="39"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="46"/>
-      <c r="B9" s="52" t="s">
+      <c r="A9" s="41"/>
+      <c r="B9" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="53"/>
+      <c r="C9" s="55"/>
       <c r="D9" s="18"/>
-      <c r="E9" s="38"/>
+      <c r="E9" s="39"/>
       <c r="F9" s="13"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="38"/>
-      <c r="I9" s="38"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="39"/>
     </row>
     <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="46"/>
+      <c r="A10" s="41"/>
       <c r="B10" s="24"/>
       <c r="C10" s="24"/>
       <c r="D10" s="23"/>
       <c r="E10" s="24"/>
       <c r="F10" s="13"/>
-      <c r="G10" s="38"/>
-      <c r="H10" s="38"/>
-      <c r="I10" s="38"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="39"/>
+      <c r="I10" s="39"/>
     </row>
     <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="46"/>
-      <c r="B11" s="54" t="s">
+      <c r="A11" s="41"/>
+      <c r="B11" s="49" t="s">
         <v>36</v>
       </c>
       <c r="C11" s="50"/>
-      <c r="D11" s="56" t="s">
+      <c r="D11" s="57" t="s">
         <v>37</v>
       </c>
       <c r="E11" s="24"/>
       <c r="F11" s="13"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="38"/>
-      <c r="I11" s="38"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="39"/>
+      <c r="I11" s="39"/>
     </row>
     <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="46"/>
-      <c r="B12" s="38"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="51"/>
+      <c r="A12" s="41"/>
+      <c r="B12" s="39"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="53"/>
       <c r="E12" s="21"/>
       <c r="F12" s="13"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="38"/>
-      <c r="I12" s="38"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="39"/>
+      <c r="I12" s="39"/>
     </row>
     <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="46"/>
-      <c r="B13" s="38"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="38"/>
+      <c r="A13" s="41"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="39"/>
       <c r="F13" s="13"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="38"/>
-      <c r="I13" s="38"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="39"/>
+      <c r="I13" s="39"/>
     </row>
     <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="46"/>
-      <c r="B14" s="38"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="38"/>
+      <c r="A14" s="41"/>
+      <c r="B14" s="39"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="39"/>
       <c r="F14" s="13"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="38"/>
-      <c r="I14" s="38"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="39"/>
+      <c r="I14" s="39"/>
     </row>
     <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="47"/>
+      <c r="A15" s="42"/>
       <c r="B15" s="24"/>
       <c r="C15" s="24"/>
       <c r="D15" s="22"/>
@@ -9247,14 +9247,14 @@
       <c r="A16" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="55" t="s">
+      <c r="B16" s="51" t="s">
         <v>19</v>
       </c>
       <c r="C16" s="24"/>
-      <c r="D16" s="57" t="s">
+      <c r="D16" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="E16" s="58"/>
+      <c r="E16" s="59"/>
       <c r="F16" s="16" t="s">
         <v>32</v>
       </c>
@@ -9269,114 +9269,114 @@
       </c>
     </row>
     <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="60">
+      <c r="A17" s="52">
         <v>2</v>
       </c>
-      <c r="B17" s="51"/>
+      <c r="B17" s="53"/>
       <c r="C17" s="21"/>
-      <c r="D17" s="61"/>
-      <c r="E17" s="38"/>
+      <c r="D17" s="56"/>
+      <c r="E17" s="39"/>
       <c r="F17" s="5"/>
       <c r="G17" s="50"/>
       <c r="H17" s="50"/>
-      <c r="I17" s="49"/>
+      <c r="I17" s="61"/>
     </row>
     <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="46"/>
-      <c r="B18" s="37"/>
-      <c r="C18" s="38"/>
+      <c r="A18" s="41"/>
+      <c r="B18" s="47"/>
+      <c r="C18" s="39"/>
       <c r="D18" s="18"/>
-      <c r="E18" s="38"/>
+      <c r="E18" s="39"/>
       <c r="F18" s="13"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="38"/>
-      <c r="I18" s="38"/>
+      <c r="G18" s="39"/>
+      <c r="H18" s="39"/>
+      <c r="I18" s="39"/>
     </row>
     <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="46"/>
+      <c r="A19" s="41"/>
       <c r="B19" s="22"/>
       <c r="C19" s="24"/>
       <c r="D19" s="18"/>
-      <c r="E19" s="38"/>
+      <c r="E19" s="39"/>
       <c r="F19" s="13"/>
-      <c r="G19" s="38"/>
-      <c r="H19" s="38"/>
-      <c r="I19" s="38"/>
+      <c r="G19" s="39"/>
+      <c r="H19" s="39"/>
+      <c r="I19" s="39"/>
     </row>
     <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="46"/>
-      <c r="B20" s="52" t="s">
+      <c r="A20" s="41"/>
+      <c r="B20" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="53"/>
+      <c r="C20" s="55"/>
       <c r="D20" s="18"/>
-      <c r="E20" s="38"/>
+      <c r="E20" s="39"/>
       <c r="F20" s="13"/>
-      <c r="G20" s="38"/>
-      <c r="H20" s="38"/>
-      <c r="I20" s="38"/>
+      <c r="G20" s="39"/>
+      <c r="H20" s="39"/>
+      <c r="I20" s="39"/>
     </row>
     <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="46"/>
+      <c r="A21" s="41"/>
       <c r="B21" s="24"/>
       <c r="C21" s="24"/>
       <c r="D21" s="23"/>
       <c r="E21" s="24"/>
       <c r="F21" s="13"/>
-      <c r="G21" s="38"/>
-      <c r="H21" s="38"/>
-      <c r="I21" s="38"/>
+      <c r="G21" s="39"/>
+      <c r="H21" s="39"/>
+      <c r="I21" s="39"/>
     </row>
     <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="46"/>
-      <c r="B22" s="54" t="s">
+      <c r="A22" s="41"/>
+      <c r="B22" s="49" t="s">
         <v>36</v>
       </c>
       <c r="C22" s="50"/>
-      <c r="D22" s="56" t="s">
+      <c r="D22" s="57" t="s">
         <v>37</v>
       </c>
       <c r="E22" s="24"/>
       <c r="F22" s="13"/>
-      <c r="G22" s="38"/>
-      <c r="H22" s="38"/>
-      <c r="I22" s="38"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="39"/>
+      <c r="I22" s="39"/>
     </row>
     <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="46"/>
-      <c r="B23" s="38"/>
-      <c r="C23" s="38"/>
-      <c r="D23" s="51"/>
+      <c r="A23" s="41"/>
+      <c r="B23" s="39"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="53"/>
       <c r="E23" s="21"/>
       <c r="F23" s="13"/>
-      <c r="G23" s="38"/>
-      <c r="H23" s="38"/>
-      <c r="I23" s="38"/>
+      <c r="G23" s="39"/>
+      <c r="H23" s="39"/>
+      <c r="I23" s="39"/>
     </row>
     <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="46"/>
-      <c r="B24" s="38"/>
-      <c r="C24" s="38"/>
-      <c r="D24" s="37"/>
-      <c r="E24" s="38"/>
+      <c r="A24" s="41"/>
+      <c r="B24" s="39"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="47"/>
+      <c r="E24" s="39"/>
       <c r="F24" s="13"/>
-      <c r="G24" s="38"/>
-      <c r="H24" s="38"/>
-      <c r="I24" s="38"/>
+      <c r="G24" s="39"/>
+      <c r="H24" s="39"/>
+      <c r="I24" s="39"/>
     </row>
     <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="46"/>
-      <c r="B25" s="38"/>
-      <c r="C25" s="38"/>
-      <c r="D25" s="37"/>
-      <c r="E25" s="38"/>
+      <c r="A25" s="41"/>
+      <c r="B25" s="39"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="47"/>
+      <c r="E25" s="39"/>
       <c r="F25" s="13"/>
-      <c r="G25" s="38"/>
-      <c r="H25" s="38"/>
-      <c r="I25" s="38"/>
+      <c r="G25" s="39"/>
+      <c r="H25" s="39"/>
+      <c r="I25" s="39"/>
     </row>
     <row r="26" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="47"/>
+      <c r="A26" s="42"/>
       <c r="B26" s="24"/>
       <c r="C26" s="24"/>
       <c r="D26" s="22"/>
@@ -9390,14 +9390,14 @@
       <c r="A27" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B27" s="55" t="s">
+      <c r="B27" s="51" t="s">
         <v>19</v>
       </c>
       <c r="C27" s="24"/>
-      <c r="D27" s="57" t="s">
+      <c r="D27" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="E27" s="58"/>
+      <c r="E27" s="59"/>
       <c r="F27" s="16" t="s">
         <v>32</v>
       </c>
@@ -9412,114 +9412,114 @@
       </c>
     </row>
     <row r="28" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="60">
+      <c r="A28" s="52">
         <v>3</v>
       </c>
-      <c r="B28" s="51"/>
+      <c r="B28" s="53"/>
       <c r="C28" s="21"/>
-      <c r="D28" s="61"/>
-      <c r="E28" s="38"/>
+      <c r="D28" s="56"/>
+      <c r="E28" s="39"/>
       <c r="F28" s="5"/>
       <c r="G28" s="50"/>
       <c r="H28" s="50"/>
-      <c r="I28" s="49"/>
+      <c r="I28" s="61"/>
     </row>
     <row r="29" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="46"/>
-      <c r="B29" s="37"/>
-      <c r="C29" s="38"/>
+      <c r="A29" s="41"/>
+      <c r="B29" s="47"/>
+      <c r="C29" s="39"/>
       <c r="D29" s="18"/>
-      <c r="E29" s="38"/>
+      <c r="E29" s="39"/>
       <c r="F29" s="13"/>
-      <c r="G29" s="38"/>
-      <c r="H29" s="38"/>
-      <c r="I29" s="38"/>
+      <c r="G29" s="39"/>
+      <c r="H29" s="39"/>
+      <c r="I29" s="39"/>
     </row>
     <row r="30" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="46"/>
+      <c r="A30" s="41"/>
       <c r="B30" s="22"/>
       <c r="C30" s="24"/>
       <c r="D30" s="18"/>
-      <c r="E30" s="38"/>
+      <c r="E30" s="39"/>
       <c r="F30" s="13"/>
-      <c r="G30" s="38"/>
-      <c r="H30" s="38"/>
-      <c r="I30" s="38"/>
+      <c r="G30" s="39"/>
+      <c r="H30" s="39"/>
+      <c r="I30" s="39"/>
     </row>
     <row r="31" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="46"/>
-      <c r="B31" s="52" t="s">
+      <c r="A31" s="41"/>
+      <c r="B31" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="C31" s="53"/>
+      <c r="C31" s="55"/>
       <c r="D31" s="18"/>
-      <c r="E31" s="38"/>
+      <c r="E31" s="39"/>
       <c r="F31" s="13"/>
-      <c r="G31" s="38"/>
-      <c r="H31" s="38"/>
-      <c r="I31" s="38"/>
+      <c r="G31" s="39"/>
+      <c r="H31" s="39"/>
+      <c r="I31" s="39"/>
     </row>
     <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="46"/>
+      <c r="A32" s="41"/>
       <c r="B32" s="24"/>
       <c r="C32" s="24"/>
       <c r="D32" s="23"/>
       <c r="E32" s="24"/>
       <c r="F32" s="13"/>
-      <c r="G32" s="38"/>
-      <c r="H32" s="38"/>
-      <c r="I32" s="38"/>
+      <c r="G32" s="39"/>
+      <c r="H32" s="39"/>
+      <c r="I32" s="39"/>
     </row>
     <row r="33" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="46"/>
-      <c r="B33" s="54" t="s">
+      <c r="A33" s="41"/>
+      <c r="B33" s="49" t="s">
         <v>36</v>
       </c>
       <c r="C33" s="50"/>
-      <c r="D33" s="56" t="s">
+      <c r="D33" s="57" t="s">
         <v>37</v>
       </c>
       <c r="E33" s="24"/>
       <c r="F33" s="13"/>
-      <c r="G33" s="38"/>
-      <c r="H33" s="38"/>
-      <c r="I33" s="38"/>
+      <c r="G33" s="39"/>
+      <c r="H33" s="39"/>
+      <c r="I33" s="39"/>
     </row>
     <row r="34" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="46"/>
-      <c r="B34" s="38"/>
-      <c r="C34" s="38"/>
-      <c r="D34" s="51"/>
+      <c r="A34" s="41"/>
+      <c r="B34" s="39"/>
+      <c r="C34" s="39"/>
+      <c r="D34" s="53"/>
       <c r="E34" s="21"/>
       <c r="F34" s="13"/>
-      <c r="G34" s="38"/>
-      <c r="H34" s="38"/>
-      <c r="I34" s="38"/>
+      <c r="G34" s="39"/>
+      <c r="H34" s="39"/>
+      <c r="I34" s="39"/>
     </row>
     <row r="35" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="46"/>
-      <c r="B35" s="38"/>
-      <c r="C35" s="38"/>
-      <c r="D35" s="37"/>
-      <c r="E35" s="38"/>
+      <c r="A35" s="41"/>
+      <c r="B35" s="39"/>
+      <c r="C35" s="39"/>
+      <c r="D35" s="47"/>
+      <c r="E35" s="39"/>
       <c r="F35" s="13"/>
-      <c r="G35" s="38"/>
-      <c r="H35" s="38"/>
-      <c r="I35" s="38"/>
+      <c r="G35" s="39"/>
+      <c r="H35" s="39"/>
+      <c r="I35" s="39"/>
     </row>
     <row r="36" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="46"/>
-      <c r="B36" s="38"/>
-      <c r="C36" s="38"/>
-      <c r="D36" s="37"/>
-      <c r="E36" s="38"/>
+      <c r="A36" s="41"/>
+      <c r="B36" s="39"/>
+      <c r="C36" s="39"/>
+      <c r="D36" s="47"/>
+      <c r="E36" s="39"/>
       <c r="F36" s="13"/>
-      <c r="G36" s="38"/>
-      <c r="H36" s="38"/>
-      <c r="I36" s="38"/>
+      <c r="G36" s="39"/>
+      <c r="H36" s="39"/>
+      <c r="I36" s="39"/>
     </row>
     <row r="37" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="47"/>
+      <c r="A37" s="42"/>
       <c r="B37" s="24"/>
       <c r="C37" s="24"/>
       <c r="D37" s="22"/>
@@ -9555,7 +9555,7 @@
       <c r="H40" s="24"/>
     </row>
     <row r="41" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="36" t="s">
+      <c r="A41" s="46" t="s">
         <v>3</v>
       </c>
       <c r="B41" s="20"/>
@@ -9567,134 +9567,134 @@
       <c r="H41" s="21"/>
     </row>
     <row r="42" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="37"/>
+      <c r="A42" s="47"/>
       <c r="B42" s="18"/>
       <c r="C42" s="18"/>
       <c r="D42" s="18"/>
       <c r="E42" s="18"/>
       <c r="F42" s="18"/>
       <c r="G42" s="18"/>
-      <c r="H42" s="38"/>
+      <c r="H42" s="39"/>
     </row>
     <row r="43" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="37"/>
+      <c r="A43" s="47"/>
       <c r="B43" s="18"/>
       <c r="C43" s="18"/>
       <c r="D43" s="18"/>
       <c r="E43" s="18"/>
       <c r="F43" s="18"/>
       <c r="G43" s="18"/>
-      <c r="H43" s="38"/>
+      <c r="H43" s="39"/>
     </row>
     <row r="44" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="37"/>
+      <c r="A44" s="47"/>
       <c r="B44" s="18"/>
       <c r="C44" s="18"/>
       <c r="D44" s="18"/>
       <c r="E44" s="18"/>
       <c r="F44" s="18"/>
       <c r="G44" s="18"/>
-      <c r="H44" s="38"/>
+      <c r="H44" s="39"/>
     </row>
     <row r="45" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="37"/>
+      <c r="A45" s="47"/>
       <c r="B45" s="18"/>
       <c r="C45" s="18"/>
       <c r="D45" s="18"/>
       <c r="E45" s="18"/>
       <c r="F45" s="18"/>
       <c r="G45" s="18"/>
-      <c r="H45" s="38"/>
+      <c r="H45" s="39"/>
     </row>
     <row r="46" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="37"/>
+      <c r="A46" s="47"/>
       <c r="B46" s="18"/>
       <c r="C46" s="18"/>
       <c r="D46" s="18"/>
       <c r="E46" s="18"/>
       <c r="F46" s="18"/>
       <c r="G46" s="18"/>
-      <c r="H46" s="38"/>
+      <c r="H46" s="39"/>
     </row>
     <row r="47" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="37"/>
+      <c r="A47" s="47"/>
       <c r="B47" s="18"/>
       <c r="C47" s="18"/>
       <c r="D47" s="18"/>
       <c r="E47" s="18"/>
       <c r="F47" s="18"/>
       <c r="G47" s="18"/>
-      <c r="H47" s="38"/>
+      <c r="H47" s="39"/>
     </row>
     <row r="48" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="37"/>
+      <c r="A48" s="47"/>
       <c r="B48" s="18"/>
       <c r="C48" s="18"/>
       <c r="D48" s="18"/>
       <c r="E48" s="18"/>
       <c r="F48" s="18"/>
       <c r="G48" s="18"/>
-      <c r="H48" s="38"/>
+      <c r="H48" s="39"/>
     </row>
     <row r="49" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="37"/>
+      <c r="A49" s="47"/>
       <c r="B49" s="18"/>
       <c r="C49" s="18"/>
       <c r="D49" s="18"/>
       <c r="E49" s="18"/>
       <c r="F49" s="18"/>
       <c r="G49" s="18"/>
-      <c r="H49" s="38"/>
+      <c r="H49" s="39"/>
     </row>
     <row r="50" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="37"/>
+      <c r="A50" s="47"/>
       <c r="B50" s="18"/>
       <c r="C50" s="18"/>
       <c r="D50" s="18"/>
       <c r="E50" s="18"/>
       <c r="F50" s="18"/>
       <c r="G50" s="18"/>
-      <c r="H50" s="38"/>
+      <c r="H50" s="39"/>
     </row>
     <row r="51" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="37"/>
+      <c r="A51" s="47"/>
       <c r="B51" s="18"/>
       <c r="C51" s="18"/>
       <c r="D51" s="18"/>
       <c r="E51" s="18"/>
       <c r="F51" s="18"/>
       <c r="G51" s="18"/>
-      <c r="H51" s="38"/>
+      <c r="H51" s="39"/>
     </row>
     <row r="52" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="37"/>
+      <c r="A52" s="47"/>
       <c r="B52" s="18"/>
       <c r="C52" s="18"/>
       <c r="D52" s="18"/>
       <c r="E52" s="18"/>
       <c r="F52" s="18"/>
       <c r="G52" s="18"/>
-      <c r="H52" s="38"/>
+      <c r="H52" s="39"/>
     </row>
     <row r="53" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="37"/>
+      <c r="A53" s="47"/>
       <c r="B53" s="18"/>
       <c r="C53" s="18"/>
       <c r="D53" s="18"/>
       <c r="E53" s="18"/>
       <c r="F53" s="18"/>
       <c r="G53" s="18"/>
-      <c r="H53" s="38"/>
+      <c r="H53" s="39"/>
     </row>
     <row r="54" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="37"/>
+      <c r="A54" s="47"/>
       <c r="B54" s="18"/>
       <c r="C54" s="18"/>
       <c r="D54" s="18"/>
       <c r="E54" s="18"/>
       <c r="F54" s="18"/>
       <c r="G54" s="18"/>
-      <c r="H54" s="38"/>
+      <c r="H54" s="39"/>
     </row>
     <row r="55" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="22"/>
@@ -11011,6 +11011,36 @@
     <row r="1002" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="46">
+    <mergeCell ref="G28:G37"/>
+    <mergeCell ref="H28:H37"/>
+    <mergeCell ref="I28:I37"/>
+    <mergeCell ref="B6:C8"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="B22:B26"/>
+    <mergeCell ref="C22:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="G6:G15"/>
+    <mergeCell ref="H6:H15"/>
+    <mergeCell ref="G17:G26"/>
+    <mergeCell ref="H17:H26"/>
+    <mergeCell ref="A1:I2"/>
+    <mergeCell ref="A3:I4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="A6:A15"/>
+    <mergeCell ref="D6:E10"/>
+    <mergeCell ref="I6:I15"/>
+    <mergeCell ref="I17:I26"/>
+    <mergeCell ref="A28:A37"/>
+    <mergeCell ref="B28:C30"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="B33:B37"/>
+    <mergeCell ref="C33:C37"/>
     <mergeCell ref="A39:H40"/>
     <mergeCell ref="A41:H55"/>
     <mergeCell ref="B11:B15"/>
@@ -11027,36 +11057,6 @@
     <mergeCell ref="D12:E15"/>
     <mergeCell ref="D16:E16"/>
     <mergeCell ref="D17:E21"/>
-    <mergeCell ref="A28:A37"/>
-    <mergeCell ref="B28:C30"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="B33:B37"/>
-    <mergeCell ref="C33:C37"/>
-    <mergeCell ref="H17:H26"/>
-    <mergeCell ref="A1:I2"/>
-    <mergeCell ref="A3:I4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="A6:A15"/>
-    <mergeCell ref="D6:E10"/>
-    <mergeCell ref="I6:I15"/>
-    <mergeCell ref="I17:I26"/>
-    <mergeCell ref="G28:G37"/>
-    <mergeCell ref="H28:H37"/>
-    <mergeCell ref="I28:I37"/>
-    <mergeCell ref="B6:C8"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="B22:B26"/>
-    <mergeCell ref="C22:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="G6:G15"/>
-    <mergeCell ref="H6:H15"/>
-    <mergeCell ref="G17:G26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
